--- a/Peaks2.xlsx
+++ b/Peaks2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Sound-Resonance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A2BC4BA-949A-4D97-AAEA-3B50A52F9603}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6BA826-EF85-4A84-8303-E32696A74BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{4712D59E-E23F-4109-B93A-0CDC273C7BF4}"/>
+    <workbookView xWindow="16305" yWindow="240" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{4712D59E-E23F-4109-B93A-0CDC273C7BF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Helium" sheetId="1" r:id="rId1"/>
@@ -381,7 +381,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.00000E+00"/>
+    <numFmt numFmtId="164" formatCode="0.00000E+00"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -414,7 +414,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -6746,7 +6746,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Helium 1st Resonance Peak</a:t>
+              <a:t>Carbon Dioxide 1st Resonance Peak</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -18328,16 +18328,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>180974</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>57149</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -21089,13 +21089,14 @@
   <dimension ref="A1:AA151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F39" sqref="F39"/>
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -21225,7 +21226,7 @@
         <v>9</v>
       </c>
       <c r="H6">
-        <v>1.667</v>
+        <v>1.395</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -21248,8 +21249,8 @@
         <v>6</v>
       </c>
       <c r="H7">
-        <f>4.002602*10^(-3)/6.022E+23</f>
-        <v>6.6466323480571248E-27</v>
+        <f>31.999*10^(-3)/6.022E+23</f>
+        <v>5.3136831617402857E-26</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -21351,15 +21352,15 @@
       </c>
       <c r="H11">
         <f>(H6)^(-1)*(H7/H8)*(2*H9*H2)^2</f>
-        <v>1.4375584752177664E-24</v>
+        <v>1.3733489822225184E-23</v>
       </c>
       <c r="I11" s="1">
         <f>H10-H11</f>
-        <v>1.2368926724782235E-23</v>
+        <v>7.2995377774817602E-26</v>
       </c>
       <c r="J11" s="1">
         <f>I11/H10*100</f>
-        <v>89.587802728982993</v>
+        <v>0.5287035528406433</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -21424,7 +21425,7 @@
       </c>
       <c r="H14">
         <f>SQRT(H6*(H8/H7)*H10)</f>
-        <v>1011.4529629817619</v>
+        <v>327.24121440738281</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -23790,13 +23791,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CA1F913-D51F-4A29-BF16-BE98CD159D98}">
   <dimension ref="A1:AA151"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -23949,8 +23952,8 @@
         <v>6</v>
       </c>
       <c r="H7">
-        <f>4.002602*10^(-3)/6.022E+23</f>
-        <v>6.6466323480571248E-27</v>
+        <f>39.948*10^(-3)/6.022E+23</f>
+        <v>6.6336765194287617E-26</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -24052,15 +24055,15 @@
       </c>
       <c r="H11">
         <f>(H6)^(-1)*(H7/H8)*(2*H9*H2)^2</f>
-        <v>1.371875628750977E-24</v>
+        <v>1.3692015248416912E-23</v>
       </c>
       <c r="I11" s="1">
         <f>H10-H11</f>
-        <v>1.2434609571249025E-23</v>
+        <v>1.1446995158308973E-25</v>
       </c>
       <c r="J11" s="1">
         <f>I11/H10*100</f>
-        <v>90.06354181474822</v>
+        <v>0.82910277253684905</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -24125,7 +24128,7 @@
       </c>
       <c r="H14">
         <f>SQRT(H6*(H8/H7)*H10)</f>
-        <v>1012.0661807668388</v>
+        <v>320.35580359857806</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -26491,13 +26494,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28C41FF7-71F0-4194-BA89-E7C08364F16F}">
   <dimension ref="A1:AH151"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:J18"/>
+    <sheetView topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="8" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -26702,7 +26706,7 @@
         <v>9</v>
       </c>
       <c r="H6">
-        <v>1.667</v>
+        <v>1.4</v>
       </c>
       <c r="AD6">
         <v>1930</v>
@@ -26740,8 +26744,8 @@
         <v>6</v>
       </c>
       <c r="H7">
-        <f>4.002602*10^(-3)/6.022E+23</f>
-        <v>6.6466323480571248E-27</v>
+        <f>28.013*10^(-3)/6.022E+23</f>
+        <v>4.6517768183327803E-26</v>
       </c>
       <c r="AD7">
         <v>1931</v>
@@ -26903,15 +26907,15 @@
       </c>
       <c r="H11">
         <f>(H6)^(-1)*(H7/H8)*(2*H9*H2)^2</f>
-        <v>1.6432915038275568E-24</v>
+        <v>1.3694285796167179E-23</v>
       </c>
       <c r="I11" s="1">
         <f>H10-H11</f>
-        <v>1.2163193696172445E-23</v>
+        <v>1.1219940383282234E-25</v>
       </c>
       <c r="J11" s="1">
         <f>I11/H10*100</f>
-        <v>88.097683950528136</v>
+        <v>0.81265725640891096</v>
       </c>
       <c r="AD11">
         <v>1935</v>
@@ -27021,7 +27025,7 @@
       </c>
       <c r="H14">
         <f>SQRT(H6*(H8/H7)*H10)</f>
-        <v>1012.9788422059643</v>
+        <v>350.9037309087476</v>
       </c>
       <c r="AD14">
         <v>1938</v>
@@ -31457,11 +31461,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD82AB6-C6F8-4842-BA0F-5A5BD8E5EE72}">
   <dimension ref="A1:AA151"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:J18"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="10" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1">
@@ -31589,7 +31597,7 @@
         <v>9</v>
       </c>
       <c r="H6">
-        <v>1.667</v>
+        <v>1.2889999999999999</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -31612,8 +31620,8 @@
         <v>6</v>
       </c>
       <c r="H7">
-        <f>4.002602*10^(-3)/6.022E+23</f>
-        <v>6.6466323480571248E-27</v>
+        <f>44.01*10^(-3)/6.022E+23</f>
+        <v>7.3082032547326469E-26</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
@@ -31715,15 +31723,15 @@
       </c>
       <c r="H11">
         <f>(H6)^(-1)*(H7/H8)*(2*H9*H2)^2</f>
-        <v>9.6515628612148705E-25</v>
+        <v>1.3724271048596867E-23</v>
       </c>
       <c r="I11" s="1">
         <f>H10-H11</f>
-        <v>1.2841328913878515E-23</v>
+        <v>8.2214151403134495E-26</v>
       </c>
       <c r="J11" s="1">
         <f>I11/H10*100</f>
-        <v>93.009399045881096</v>
+        <v>0.59547488163848161</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -31788,7 +31796,7 @@
       </c>
       <c r="H14">
         <f>SQRT(H6*(H8/H7)*H10)</f>
-        <v>1011.3562134337892</v>
+        <v>268.1997233079519</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
@@ -34154,7 +34162,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23171ADC-AF3C-4DAE-8003-55A21858D078}">
   <dimension ref="A1:AA112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
+    <sheetView zoomScale="92" workbookViewId="0">
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>

--- a/Peaks2.xlsx
+++ b/Peaks2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Sound-Resonance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E6BA826-EF85-4A84-8303-E32696A74BC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{439AB128-5946-4D60-8143-8567DBDCF0A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16305" yWindow="240" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{4712D59E-E23F-4109-B93A-0CDC273C7BF4}"/>
+    <workbookView xWindow="17475" yWindow="870" windowWidth="21600" windowHeight="11385" firstSheet="6" activeTab="8" xr2:uid="{4712D59E-E23F-4109-B93A-0CDC273C7BF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Helium" sheetId="1" r:id="rId1"/>
@@ -314,7 +314,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="30">
   <si>
     <t>s</t>
   </si>
@@ -326,12 +326,6 @@
   </si>
   <si>
     <t>Freq</t>
-  </si>
-  <si>
-    <t>cv</t>
-  </si>
-  <si>
-    <t>cp</t>
   </si>
   <si>
     <t>m</t>
@@ -374,6 +368,42 @@
   </si>
   <si>
     <t>Exp Speed of Sound</t>
+  </si>
+  <si>
+    <t>First Fraction</t>
+  </si>
+  <si>
+    <t>Second Fraction</t>
+  </si>
+  <si>
+    <t>Expected Freq</t>
+  </si>
+  <si>
+    <t>cv_A</t>
+  </si>
+  <si>
+    <t>cp_A</t>
+  </si>
+  <si>
+    <t>m_A</t>
+  </si>
+  <si>
+    <t>x_A</t>
+  </si>
+  <si>
+    <t>cv_B</t>
+  </si>
+  <si>
+    <t>cp_B</t>
+  </si>
+  <si>
+    <t>m_B</t>
+  </si>
+  <si>
+    <t>Nitrogen</t>
+  </si>
+  <si>
+    <t>Oxygen</t>
   </si>
 </sst>
 </file>
@@ -2600,7 +2630,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Intensity (V)</a:t>
+                  <a:t>Intensity (mV)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -3928,7 +3958,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Intensity (V)</a:t>
+                  <a:t>Intensity (mV)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -5256,7 +5286,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Intensity (V)</a:t>
+                  <a:t>Intensity (mV)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -6584,7 +6614,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Intensity (V)</a:t>
+                  <a:t>Intensity (mV)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -7912,7 +7942,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Intensity (V)</a:t>
+                  <a:t>Intensity (mV)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -9015,7 +9045,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Intensity (V)</a:t>
+                  <a:t>Intensity (mV)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -10351,7 +10381,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Intensity (V)</a:t>
+                  <a:t>Intensity (mV)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -11686,7 +11716,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Intensity (V)</a:t>
+                  <a:t>Intensity (mV)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -13021,7 +13051,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>Intensity (V)</a:t>
+                  <a:t>Intensity (mV)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -18371,14 +18401,14 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>180974</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>408746</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>38099</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>294447</xdr:colOff>
       <xdr:row>32</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
@@ -18414,16 +18444,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>180974</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>149914</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:rowOff>17393</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>35615</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>74544</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -18457,16 +18487,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>180974</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>4969</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>501512</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -18500,16 +18530,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>180974</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>595104</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>38099</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>66675</xdr:colOff>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>480805</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>57151</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -18839,7 +18869,7 @@
   <dimension ref="A1:J151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -18873,7 +18903,7 @@
         <v>3</v>
       </c>
       <c r="I1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -18958,7 +18988,7 @@
         <v>623.65158599999995</v>
       </c>
       <c r="G6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H6">
         <v>1.667</v>
@@ -18978,7 +19008,7 @@
         <v>623.64799200000004</v>
       </c>
       <c r="G7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H7">
         <f>4.002602*10^(-3)/6.022E+23</f>
@@ -18999,7 +19029,7 @@
         <v>623.65774599999997</v>
       </c>
       <c r="G8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H8">
         <f>I2+273</f>
@@ -19020,7 +19050,7 @@
         <v>623.69367899999997</v>
       </c>
       <c r="G9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H9">
         <f>87.5*10^(-3)</f>
@@ -19041,17 +19071,17 @@
         <v>623.710106</v>
       </c>
       <c r="G10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H10" s="1">
         <f>1.38064852*10^(-23)</f>
         <v>1.3806485200000002E-23</v>
       </c>
       <c r="I10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -19068,7 +19098,7 @@
         <v>623.68495199999995</v>
       </c>
       <c r="G11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H11">
         <f>(H6)^(-1)*(H7/H8)*(2*H9*H2)^2</f>
@@ -19111,12 +19141,18 @@
         <v>623.66852600000004</v>
       </c>
       <c r="G13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H13">
         <f>2*H9*H2</f>
         <v>983.50000000000011</v>
       </c>
+      <c r="I13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -19132,12 +19168,20 @@
         <v>623.67879200000004</v>
       </c>
       <c r="G14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H14">
         <f>SQRT(H6*(H8/H7)*H10)</f>
         <v>1012.268305744454</v>
       </c>
+      <c r="I14">
+        <f>H14-H13</f>
+        <v>28.768305744453869</v>
+      </c>
+      <c r="J14">
+        <f>I14/H14*100</f>
+        <v>2.8419644852257573</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -19153,7 +19197,7 @@
         <v>623.65055900000004</v>
       </c>
       <c r="G15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H15">
         <f>_xlfn.STDEV.P(D1:D151)</f>
@@ -19174,7 +19218,7 @@
         <v>623.69778599999995</v>
       </c>
       <c r="G16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H16">
         <f>H15/AVERAGE(D1:D151)*100</f>
@@ -19209,7 +19253,7 @@
         <v>623.68341199999998</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H18">
         <f>(C151-C1)</f>
@@ -21089,7 +21133,7 @@
   <dimension ref="A1:AA151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+      <selection activeCell="I13" sqref="I13:J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21123,7 +21167,7 @@
         <v>3</v>
       </c>
       <c r="I1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -21223,7 +21267,7 @@
         <v>100</v>
       </c>
       <c r="G6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H6">
         <v>1.395</v>
@@ -21246,7 +21290,7 @@
         <v>100</v>
       </c>
       <c r="G7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H7">
         <f>31.999*10^(-3)/6.022E+23</f>
@@ -21270,7 +21314,7 @@
         <v>100</v>
       </c>
       <c r="G8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H8">
         <f>I2+273</f>
@@ -21294,7 +21338,7 @@
         <v>100</v>
       </c>
       <c r="G9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H9">
         <f>87.5*10^(-3)</f>
@@ -21318,17 +21362,17 @@
         <v>100</v>
       </c>
       <c r="G10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H10" s="1">
         <f>1.38064852*10^(-23)</f>
         <v>1.3806485200000002E-23</v>
       </c>
       <c r="I10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -21348,7 +21392,7 @@
         <v>100</v>
       </c>
       <c r="G11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H11">
         <f>(H6)^(-1)*(H7/H8)*(2*H9*H2)^2</f>
@@ -21397,12 +21441,18 @@
         <v>100</v>
       </c>
       <c r="G13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H13">
         <f>2*H9*H2</f>
         <v>326.37500000000006</v>
       </c>
+      <c r="I13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -21421,12 +21471,20 @@
         <v>100</v>
       </c>
       <c r="G14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H14">
         <f>SQRT(H6*(H8/H7)*H10)</f>
         <v>327.24121440738281</v>
       </c>
+      <c r="I14">
+        <f>H14-H13</f>
+        <v>0.86621440738275624</v>
+      </c>
+      <c r="J14">
+        <f>I14/H14*100</f>
+        <v>0.26470211246203401</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -21445,7 +21503,7 @@
         <v>100</v>
       </c>
       <c r="G15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H15">
         <f>_xlfn.STDEV.P(C1:C151)</f>
@@ -21469,7 +21527,7 @@
         <v>100</v>
       </c>
       <c r="G16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H16">
         <f>H15/AVERAGE(C1:C151)*100</f>
@@ -21510,7 +21568,7 @@
         <v>100</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H18">
         <f>(B151-B1)</f>
@@ -23792,7 +23850,7 @@
   <dimension ref="A1:AA151"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23826,7 +23884,7 @@
         <v>3</v>
       </c>
       <c r="I1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -23926,7 +23984,7 @@
         <v>100</v>
       </c>
       <c r="G6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H6">
         <v>1.667</v>
@@ -23949,7 +24007,7 @@
         <v>100</v>
       </c>
       <c r="G7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H7">
         <f>39.948*10^(-3)/6.022E+23</f>
@@ -23973,7 +24031,7 @@
         <v>100</v>
       </c>
       <c r="G8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H8">
         <f>I2+273</f>
@@ -23997,7 +24055,7 @@
         <v>100</v>
       </c>
       <c r="G9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H9">
         <f>87.5*10^(-3)</f>
@@ -24021,17 +24079,17 @@
         <v>100</v>
       </c>
       <c r="G10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H10" s="1">
         <f>1.38064852*10^(-23)</f>
         <v>1.3806485200000002E-23</v>
       </c>
       <c r="I10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -24051,7 +24109,7 @@
         <v>100</v>
       </c>
       <c r="G11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H11">
         <f>(H6)^(-1)*(H7/H8)*(2*H9*H2)^2</f>
@@ -24100,12 +24158,18 @@
         <v>100</v>
       </c>
       <c r="G13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H13">
         <f>2*H9*H2</f>
         <v>319.02500000000003</v>
       </c>
+      <c r="I13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -24124,12 +24188,20 @@
         <v>100</v>
       </c>
       <c r="G14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H14">
         <f>SQRT(H6*(H8/H7)*H10)</f>
         <v>320.35580359857806</v>
       </c>
+      <c r="I14">
+        <f>H14-H13</f>
+        <v>1.3308035985780293</v>
+      </c>
+      <c r="J14">
+        <f>I14/H14*100</f>
+        <v>0.41541423118577031</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -24148,7 +24220,7 @@
         <v>100</v>
       </c>
       <c r="G15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H15">
         <f>_xlfn.STDEV.P(C1:C151)</f>
@@ -24172,7 +24244,7 @@
         <v>100</v>
       </c>
       <c r="G16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H16">
         <f>H15/AVERAGE(C1:C151)*100</f>
@@ -24213,7 +24285,7 @@
         <v>100</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H18">
         <f>(B151-B1)</f>
@@ -26494,8 +26566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28C41FF7-71F0-4194-BA89-E7C08364F16F}">
   <dimension ref="A1:AH151"/>
   <sheetViews>
-    <sheetView topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26528,7 +26600,7 @@
         <v>3</v>
       </c>
       <c r="I1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AD1">
         <v>1925</v>
@@ -26703,7 +26775,7 @@
         <v>100</v>
       </c>
       <c r="G6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H6">
         <v>1.4</v>
@@ -26741,7 +26813,7 @@
         <v>100</v>
       </c>
       <c r="G7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H7">
         <f>28.013*10^(-3)/6.022E+23</f>
@@ -26780,7 +26852,7 @@
         <v>100</v>
       </c>
       <c r="G8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H8">
         <f>I2+273</f>
@@ -26819,7 +26891,7 @@
         <v>100</v>
       </c>
       <c r="G9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H9">
         <f>87.5*10^(-3)</f>
@@ -26858,17 +26930,17 @@
         <v>100</v>
       </c>
       <c r="G10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H10" s="1">
         <f>1.38064852*10^(-23)</f>
         <v>1.3806485200000002E-23</v>
       </c>
       <c r="I10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AD10">
         <v>1934</v>
@@ -26903,7 +26975,7 @@
         <v>100</v>
       </c>
       <c r="G11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H11">
         <f>(H6)^(-1)*(H7/H8)*(2*H9*H2)^2</f>
@@ -26982,12 +27054,18 @@
         <v>100</v>
       </c>
       <c r="G13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H13">
         <f>2*H9*H2</f>
         <v>349.47500000000002</v>
       </c>
+      <c r="I13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" t="s">
+        <v>16</v>
+      </c>
       <c r="AD13">
         <v>1937</v>
       </c>
@@ -27021,12 +27099,20 @@
         <v>100</v>
       </c>
       <c r="G14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H14">
         <f>SQRT(H6*(H8/H7)*H10)</f>
         <v>350.9037309087476</v>
       </c>
+      <c r="I14">
+        <f>H14-H13</f>
+        <v>1.4287309087475819</v>
+      </c>
+      <c r="J14">
+        <f>I14/H14*100</f>
+        <v>0.40715751441215731</v>
+      </c>
       <c r="AD14">
         <v>1938</v>
       </c>
@@ -27060,7 +27146,7 @@
         <v>100</v>
       </c>
       <c r="G15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H15">
         <f>_xlfn.STDEV.P(C1:C151)</f>
@@ -27099,7 +27185,7 @@
         <v>100</v>
       </c>
       <c r="G16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H16">
         <f>H15/AVERAGE(C1:C151)*100</f>
@@ -27170,7 +27256,7 @@
         <v>100</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H18">
         <f>(B151-B1)</f>
@@ -31461,8 +31547,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFD82AB6-C6F8-4842-BA0F-5A5BD8E5EE72}">
   <dimension ref="A1:AA151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13:J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31494,7 +31580,7 @@
         <v>3</v>
       </c>
       <c r="I1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
@@ -31594,7 +31680,7 @@
         <v>100</v>
       </c>
       <c r="G6" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H6">
         <v>1.2889999999999999</v>
@@ -31617,7 +31703,7 @@
         <v>100</v>
       </c>
       <c r="G7" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H7">
         <f>44.01*10^(-3)/6.022E+23</f>
@@ -31641,7 +31727,7 @@
         <v>100</v>
       </c>
       <c r="G8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H8">
         <f>I2+273</f>
@@ -31665,7 +31751,7 @@
         <v>100</v>
       </c>
       <c r="G9" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H9">
         <f>87.5*10^(-3)</f>
@@ -31689,17 +31775,17 @@
         <v>100</v>
       </c>
       <c r="G10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H10" s="1">
         <f>1.38064852*10^(-23)</f>
         <v>1.3806485200000002E-23</v>
       </c>
       <c r="I10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -31719,7 +31805,7 @@
         <v>100</v>
       </c>
       <c r="G11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H11">
         <f>(H6)^(-1)*(H7/H8)*(2*H9*H2)^2</f>
@@ -31768,12 +31854,18 @@
         <v>100</v>
       </c>
       <c r="G13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="H13">
         <f>2*H9*H2</f>
         <v>267.40000000000003</v>
       </c>
+      <c r="I13" t="s">
+        <v>15</v>
+      </c>
+      <c r="J13" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -31792,12 +31884,20 @@
         <v>100</v>
       </c>
       <c r="G14" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H14">
         <f>SQRT(H6*(H8/H7)*H10)</f>
         <v>268.1997233079519</v>
       </c>
+      <c r="I14">
+        <f>H14-H13</f>
+        <v>0.79972330795186508</v>
+      </c>
+      <c r="J14">
+        <f>I14/H14*100</f>
+        <v>0.2981820033548685</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -31816,7 +31916,7 @@
         <v>100</v>
       </c>
       <c r="G15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H15">
         <f>_xlfn.STDEV.P(C1:C151)</f>
@@ -31840,7 +31940,7 @@
         <v>100</v>
       </c>
       <c r="G16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H16">
         <f>H15/AVERAGE(C1:C151)*100</f>
@@ -31881,7 +31981,7 @@
         <v>100</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H18">
         <f>(B151-B1)</f>
@@ -34163,12 +34263,16 @@
   <dimension ref="A1:AA112"/>
   <sheetViews>
     <sheetView zoomScale="92" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1750</v>
       </c>
@@ -34184,17 +34288,17 @@
       <c r="E1">
         <v>100</v>
       </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
       <c r="H1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1756.8</v>
       </c>
@@ -34210,16 +34314,20 @@
       <c r="E2">
         <v>100</v>
       </c>
-      <c r="I2">
+      <c r="G2">
         <f>MAX($B$1:$B$151)</f>
         <v>47.650399999999998</v>
       </c>
-      <c r="J2">
-        <f>INDEX($A$1:$A$151, MATCH($I$2,$B$1:$B$151, 0), 1)</f>
+      <c r="H2">
+        <f>INDEX($A$1:$A$151, MATCH($G$2,$B$1:$B$151, 0), 1)</f>
         <v>1962.3</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <f>INDEX($C$1:$C$151, MATCH($G$2,$B$1:$B$151, 0), 1)</f>
+        <v>22.661926000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1763.7</v>
       </c>
@@ -34236,7 +34344,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1770.5</v>
       </c>
@@ -34252,8 +34360,17 @@
       <c r="E4">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4">
+        <v>0.74299999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1777.4</v>
       </c>
@@ -34269,11 +34386,14 @@
       <c r="E5">
         <v>100</v>
       </c>
-      <c r="I5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5">
+        <v>1.0389999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1784.2</v>
       </c>
@@ -34289,11 +34409,15 @@
       <c r="E6">
         <v>100</v>
       </c>
-      <c r="I6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6">
+        <f>28.013*10^(-3)/6.022E+23</f>
+        <v>4.6517768183327803E-26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1791.1</v>
       </c>
@@ -34309,11 +34433,14 @@
       <c r="E7">
         <v>100</v>
       </c>
-      <c r="I7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7">
+        <v>0.78787799999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1797.9</v>
       </c>
@@ -34329,11 +34456,17 @@
       <c r="E8">
         <v>100</v>
       </c>
-      <c r="I8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8">
+        <v>0.65800000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1804.8</v>
       </c>
@@ -34349,11 +34482,14 @@
       <c r="E9">
         <v>100</v>
       </c>
-      <c r="I9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9">
+        <v>0.91800000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1811.6</v>
       </c>
@@ -34369,8 +34505,15 @@
       <c r="E10">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10">
+        <f>31.999*10^(-3)/6.022E+23</f>
+        <v>5.3136831617402857E-26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1818.5</v>
       </c>
@@ -34386,8 +34529,15 @@
       <c r="E11">
         <v>100</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <f>I2</f>
+        <v>22.661926000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1825.3</v>
       </c>
@@ -34403,8 +34553,15 @@
       <c r="E12">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12">
+        <f>87.5*10^(-3)</f>
+        <v>8.7500000000000008E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1832.2</v>
       </c>
@@ -34420,8 +34577,15 @@
       <c r="E13">
         <v>100</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="1">
+        <f>1.38064852*10^(-23)</f>
+        <v>1.3806485200000002E-23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1839</v>
       </c>
@@ -34437,8 +34601,15 @@
       <c r="E14">
         <v>100</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14">
+        <f>(H7*H5+(1-H7)*H9)/(H7*H4+(1-H7)*H8)</f>
+        <v>1.397759569597419</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1845.9</v>
       </c>
@@ -34454,8 +34625,15 @@
       <c r="E15">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15">
+        <f>H13*(H11+273)/(H7*H6+(1-H7)*H10)</f>
+        <v>85181.494519318352</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1852.7</v>
       </c>
@@ -34470,6 +34648,13 @@
       </c>
       <c r="E16">
         <v>100</v>
+      </c>
+      <c r="G16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16">
+        <f>SQRT(H14*H15)/(2*H12)</f>
+        <v>1971.7453088580348</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
@@ -36118,12 +36303,16 @@
   <dimension ref="A1:AA151"/>
   <sheetViews>
     <sheetView zoomScale="92" workbookViewId="0">
-      <selection activeCell="AD10" sqref="AD10"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1900</v>
       </c>
@@ -36139,17 +36328,17 @@
       <c r="E1">
         <v>100</v>
       </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
       <c r="H1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1901</v>
       </c>
@@ -36165,16 +36354,20 @@
       <c r="E2">
         <v>100</v>
       </c>
+      <c r="G2">
+        <f>MAX($B$1:$B$151)</f>
+        <v>57.716166999999999</v>
+      </c>
+      <c r="H2">
+        <f>INDEX($A$1:$A$151, MATCH($G$2,$B$1:$B$151, 0), 1)</f>
+        <v>1958</v>
+      </c>
       <c r="I2">
-        <f>MAX($A$1:$A$151)</f>
-        <v>2050</v>
-      </c>
-      <c r="J2" t="e">
-        <f>INDEX(#REF!, MATCH($I$2,$A$1:$A$151, 0), 1)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <f>INDEX($C$1:$C$151, MATCH($G$2,$B$1:$B$151, 0), 1)</f>
+        <v>22.15419</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1902</v>
       </c>
@@ -36191,7 +36384,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1903</v>
       </c>
@@ -36207,8 +36400,17 @@
       <c r="E4">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4">
+        <v>0.74299999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1904</v>
       </c>
@@ -36224,11 +36426,14 @@
       <c r="E5">
         <v>100</v>
       </c>
-      <c r="I5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5">
+        <v>1.0389999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1905</v>
       </c>
@@ -36244,11 +36449,15 @@
       <c r="E6">
         <v>100</v>
       </c>
-      <c r="I6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6">
+        <f>28.013*10^(-3)/6.022E+23</f>
+        <v>4.6517768183327803E-26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1906</v>
       </c>
@@ -36264,11 +36473,14 @@
       <c r="E7">
         <v>100</v>
       </c>
-      <c r="I7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7">
+        <v>0.78787799999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1907</v>
       </c>
@@ -36284,11 +36496,17 @@
       <c r="E8">
         <v>100</v>
       </c>
-      <c r="I8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8">
+        <v>0.65800000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1908</v>
       </c>
@@ -36304,11 +36522,14 @@
       <c r="E9">
         <v>100</v>
       </c>
-      <c r="I9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9">
+        <v>0.91800000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1909</v>
       </c>
@@ -36324,8 +36545,15 @@
       <c r="E10">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10">
+        <f>31.999*10^(-3)/6.022E+23</f>
+        <v>5.3136831617402857E-26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1910</v>
       </c>
@@ -36341,8 +36569,15 @@
       <c r="E11">
         <v>100</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <f>I2</f>
+        <v>22.15419</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1911</v>
       </c>
@@ -36358,8 +36593,15 @@
       <c r="E12">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12">
+        <f>87.5*10^(-3)</f>
+        <v>8.7500000000000008E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1912</v>
       </c>
@@ -36375,8 +36617,15 @@
       <c r="E13">
         <v>100</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="1">
+        <f>1.38064852*10^(-23)</f>
+        <v>1.3806485200000002E-23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1913</v>
       </c>
@@ -36392,8 +36641,15 @@
       <c r="E14">
         <v>100</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14">
+        <f>(H7*H5+(1-H7)*H9)/(H7*H4+(1-H7)*H8)</f>
+        <v>1.397759569597419</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1914</v>
       </c>
@@ -36409,8 +36665,15 @@
       <c r="E15">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15" s="1">
+        <f>H13*(H11+273)/(H7*H6+(1-H7)*H10)</f>
+        <v>85035.213556171075</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1915</v>
       </c>
@@ -36425,6 +36688,13 @@
       </c>
       <c r="E16">
         <v>100</v>
+      </c>
+      <c r="G16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16">
+        <f>SQRT(H14*H15)/(2*H12)</f>
+        <v>1970.0515563617132</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
@@ -38736,12 +39006,16 @@
   <dimension ref="A1:AA151"/>
   <sheetViews>
     <sheetView zoomScale="92" workbookViewId="0">
-      <selection activeCell="AC9" sqref="AC9"/>
+      <selection activeCell="F4" sqref="F4:H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1900</v>
       </c>
@@ -38757,17 +39031,17 @@
       <c r="E1">
         <v>100</v>
       </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
       <c r="H1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1901</v>
       </c>
@@ -38783,16 +39057,20 @@
       <c r="E2">
         <v>100</v>
       </c>
+      <c r="G2">
+        <f>MAX($B$1:$B$151)</f>
+        <v>52.818016999999998</v>
+      </c>
+      <c r="H2">
+        <f>INDEX($A$1:$A$151, MATCH($G$2,$B$1:$B$151, 0), 1)</f>
+        <v>1959</v>
+      </c>
       <c r="I2">
-        <f>MAX($A$1:$A$151)</f>
-        <v>2050</v>
-      </c>
-      <c r="J2" t="e">
-        <f>INDEX(#REF!, MATCH($I$2,$A$1:$A$151, 0), 1)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <f>INDEX($C$1:$C$151, MATCH($G$2,$B$1:$B$151, 0), 1)</f>
+        <v>23.036794</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1902</v>
       </c>
@@ -38809,7 +39087,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1903</v>
       </c>
@@ -38825,8 +39103,17 @@
       <c r="E4">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4">
+        <v>0.74299999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1904</v>
       </c>
@@ -38842,11 +39129,14 @@
       <c r="E5">
         <v>100</v>
       </c>
-      <c r="I5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5">
+        <v>1.0389999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1905</v>
       </c>
@@ -38862,11 +39152,15 @@
       <c r="E6">
         <v>100</v>
       </c>
-      <c r="I6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6">
+        <f>28.013*10^(-3)/6.022E+23</f>
+        <v>4.6517768183327803E-26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1906</v>
       </c>
@@ -38882,11 +39176,14 @@
       <c r="E7">
         <v>100</v>
       </c>
-      <c r="I7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7">
+        <v>0.78787799999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1907</v>
       </c>
@@ -38902,11 +39199,17 @@
       <c r="E8">
         <v>100</v>
       </c>
-      <c r="I8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8">
+        <v>0.65800000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1908</v>
       </c>
@@ -38922,11 +39225,14 @@
       <c r="E9">
         <v>100</v>
       </c>
-      <c r="I9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9">
+        <v>0.91800000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1909</v>
       </c>
@@ -38942,8 +39248,15 @@
       <c r="E10">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10">
+        <f>31.999*10^(-3)/6.022E+23</f>
+        <v>5.3136831617402857E-26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1910</v>
       </c>
@@ -38959,8 +39272,15 @@
       <c r="E11">
         <v>100</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <f>I2</f>
+        <v>23.036794</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1911</v>
       </c>
@@ -38976,8 +39296,15 @@
       <c r="E12">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12">
+        <f>87.5*10^(-3)</f>
+        <v>8.7500000000000008E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1912</v>
       </c>
@@ -38993,8 +39320,15 @@
       <c r="E13">
         <v>100</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="1">
+        <f>1.38064852*10^(-23)</f>
+        <v>1.3806485200000002E-23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1913</v>
       </c>
@@ -39010,8 +39344,15 @@
       <c r="E14">
         <v>100</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14">
+        <f>(H7*H5+(1-H7)*H9)/(H7*H4+(1-H7)*H8)</f>
+        <v>1.397759569597419</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1914</v>
       </c>
@@ -39027,8 +39368,15 @@
       <c r="E15">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15">
+        <f>H13*(H11+273)/(H7*H6+(1-H7)*H10)</f>
+        <v>85289.495630315199</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1915</v>
       </c>
@@ -39043,6 +39391,13 @@
       </c>
       <c r="E16">
         <v>100</v>
+      </c>
+      <c r="G16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16">
+        <f>SQRT(H14*H15)/(2*H12)</f>
+        <v>1972.9948949811201</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
@@ -41353,13 +41708,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA6EE0F8-9662-4DE9-B850-BC544A3C720E}">
   <dimension ref="A1:AA151"/>
   <sheetViews>
-    <sheetView zoomScale="92" workbookViewId="0">
-      <selection activeCell="AD6" sqref="AD6"/>
+    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1900</v>
       </c>
@@ -41375,17 +41733,17 @@
       <c r="E1">
         <v>100</v>
       </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
       <c r="H1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1901</v>
       </c>
@@ -41401,16 +41759,20 @@
       <c r="E2">
         <v>100</v>
       </c>
+      <c r="G2">
+        <f>MAX($B$1:$B$151)</f>
+        <v>54.9557</v>
+      </c>
+      <c r="H2">
+        <f>INDEX($A$1:$A$151, MATCH($G$2,$B$1:$B$151, 0), 1)</f>
+        <v>1950</v>
+      </c>
       <c r="I2">
-        <f>MAX($A$1:$A$151)</f>
-        <v>2050</v>
-      </c>
-      <c r="J2" t="e">
-        <f>INDEX(#REF!, MATCH($I$2,$A$1:$A$151, 0), 1)</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <f>INDEX($C$1:$C$151, MATCH($G$2,$B$1:$B$151, 0), 1)</f>
+        <v>21.871582</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1902</v>
       </c>
@@ -41427,7 +41789,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1903</v>
       </c>
@@ -41443,8 +41805,17 @@
       <c r="E4">
         <v>100</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4" t="s">
+        <v>21</v>
+      </c>
+      <c r="H4">
+        <v>0.74299999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1904</v>
       </c>
@@ -41460,11 +41831,14 @@
       <c r="E5">
         <v>100</v>
       </c>
-      <c r="I5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H5">
+        <v>1.0389999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1905</v>
       </c>
@@ -41480,11 +41854,15 @@
       <c r="E6">
         <v>100</v>
       </c>
-      <c r="I6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G6" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6">
+        <f>28.013*10^(-3)/6.022E+23</f>
+        <v>4.6517768183327803E-26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1906</v>
       </c>
@@ -41500,11 +41878,14 @@
       <c r="E7">
         <v>100</v>
       </c>
-      <c r="I7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G7" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7">
+        <v>0.78787799999999997</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1907</v>
       </c>
@@ -41520,11 +41901,17 @@
       <c r="E8">
         <v>100</v>
       </c>
-      <c r="I8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F8" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8">
+        <v>0.65800000000000003</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1908</v>
       </c>
@@ -41540,11 +41927,14 @@
       <c r="E9">
         <v>100</v>
       </c>
-      <c r="I9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G9" t="s">
+        <v>26</v>
+      </c>
+      <c r="H9">
+        <v>0.91800000000000004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1909</v>
       </c>
@@ -41560,8 +41950,15 @@
       <c r="E10">
         <v>100</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10">
+        <f>31.999*10^(-3)/6.022E+23</f>
+        <v>5.3136831617402857E-26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1910</v>
       </c>
@@ -41577,8 +41974,15 @@
       <c r="E11">
         <v>100</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H11">
+        <f>I2</f>
+        <v>21.871582</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1911</v>
       </c>
@@ -41594,8 +41998,15 @@
       <c r="E12">
         <v>100</v>
       </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G12" t="s">
+        <v>6</v>
+      </c>
+      <c r="H12">
+        <f>87.5*10^(-3)</f>
+        <v>8.7500000000000008E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1912</v>
       </c>
@@ -41611,8 +42022,15 @@
       <c r="E13">
         <v>100</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G13" t="s">
+        <v>14</v>
+      </c>
+      <c r="H13" s="1">
+        <f>1.38064852*10^(-23)</f>
+        <v>1.3806485200000002E-23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1913</v>
       </c>
@@ -41628,8 +42046,15 @@
       <c r="E14">
         <v>100</v>
       </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G14" t="s">
+        <v>18</v>
+      </c>
+      <c r="H14">
+        <f>(H7*H5+(1-H7)*H9)/(H7*H4+(1-H7)*H8)</f>
+        <v>1.397759569597419</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1914</v>
       </c>
@@ -41645,8 +42070,15 @@
       <c r="E15">
         <v>100</v>
       </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G15" t="s">
+        <v>19</v>
+      </c>
+      <c r="H15">
+        <f>H13*(H11+273)/(H7*H6+(1-H7)*H10)</f>
+        <v>84953.792954848483</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1915</v>
       </c>
@@ -41661,6 +42093,13 @@
       </c>
       <c r="E16">
         <v>100</v>
+      </c>
+      <c r="G16" t="s">
+        <v>20</v>
+      </c>
+      <c r="H16">
+        <f>SQRT(H14*H15)/(2*H12)</f>
+        <v>1969.108175436538</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">

--- a/Peaks2.xlsx
+++ b/Peaks2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Sound-Resonance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B526B19-502F-406B-B69D-42DF60E9A9DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C5254E-0C12-4A5D-948F-14E772CC26E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="870" windowWidth="21600" windowHeight="11385" xr2:uid="{4712D59E-E23F-4109-B93A-0CDC273C7BF4}"/>
+    <workbookView xWindow="15480" yWindow="840" windowWidth="21600" windowHeight="11385" firstSheet="7" activeTab="9" xr2:uid="{4712D59E-E23F-4109-B93A-0CDC273C7BF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Helium" sheetId="1" r:id="rId1"/>
@@ -345,7 +345,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="32">
   <si>
     <t>s</t>
   </si>
@@ -435,6 +435,12 @@
   </si>
   <si>
     <t>Oxygen</t>
+  </si>
+  <si>
+    <t>Calc Speed of Sound</t>
+  </si>
+  <si>
+    <t>Expected Speed of Sound</t>
   </si>
 </sst>
 </file>
@@ -21793,8 +21799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE80F183-94C3-462E-929A-8B177ED986F7}">
   <dimension ref="A1:J151"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24057,8 +24063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA6EE0F8-9662-4DE9-B850-BC544A3C720E}">
   <dimension ref="A1:AA151"/>
   <sheetViews>
-    <sheetView zoomScale="92" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24483,6 +24489,13 @@
       </c>
       <c r="E18">
         <v>100</v>
+      </c>
+      <c r="G18" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18">
+        <f>SQRT(H14*H15)</f>
+        <v>344.59393070139419</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
@@ -26760,7 +26773,7 @@
   <dimension ref="A1:J151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29477,7 +29490,7 @@
   <dimension ref="A1:AA151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13:J14"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42607,12 +42620,12 @@
   <dimension ref="A1:AA112"/>
   <sheetViews>
     <sheetView zoomScale="92" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -43017,6 +43030,12 @@
       <c r="E17">
         <v>100</v>
       </c>
+      <c r="I17" t="s">
+        <v>15</v>
+      </c>
+      <c r="J17" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -43034,6 +43053,21 @@
       <c r="E18">
         <v>100</v>
       </c>
+      <c r="G18" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18">
+        <f>SQRT(H14*H15)</f>
+        <v>345.05542905015614</v>
+      </c>
+      <c r="I18">
+        <f>H19-H18</f>
+        <v>0.16839094984385383</v>
+      </c>
+      <c r="J18">
+        <f>(H19-H18)/H19*100</f>
+        <v>4.877732650193542E-2</v>
+      </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -43050,6 +43084,12 @@
       </c>
       <c r="E19">
         <v>100</v>
+      </c>
+      <c r="G19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19">
+        <v>345.22381999999999</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
@@ -44647,7 +44687,7 @@
   <dimension ref="A1:AA151"/>
   <sheetViews>
     <sheetView zoomScale="92" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="G18" sqref="G18:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45074,6 +45114,13 @@
       <c r="E18">
         <v>100</v>
       </c>
+      <c r="G18" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18">
+        <f>SQRT(H14*H15)</f>
+        <v>344.75902236329983</v>
+      </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -47350,7 +47397,7 @@
   <dimension ref="A1:AA151"/>
   <sheetViews>
     <sheetView zoomScale="92" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:H16"/>
+      <selection activeCell="G18" sqref="G18:H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -47777,6 +47824,13 @@
       <c r="E18">
         <v>100</v>
       </c>
+      <c r="G18" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18">
+        <f>SQRT(H14*H15)</f>
+        <v>345.27410662169603</v>
+      </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
       <c r="A19">

--- a/Peaks2.xlsx
+++ b/Peaks2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Sound-Resonance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25C5254E-0C12-4A5D-948F-14E772CC26E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E49786-0178-4C13-BA80-D207C880B702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15480" yWindow="840" windowWidth="21600" windowHeight="11385" firstSheet="7" activeTab="9" xr2:uid="{4712D59E-E23F-4109-B93A-0CDC273C7BF4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="10" xr2:uid="{4712D59E-E23F-4109-B93A-0CDC273C7BF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Helium" sheetId="1" r:id="rId1"/>
@@ -23,6 +23,7 @@
     <sheet name="Dry Ambient Air" sheetId="16" r:id="rId8"/>
     <sheet name="Exhaled Air" sheetId="17" r:id="rId9"/>
     <sheet name="Excersize Exhaled Air" sheetId="18" r:id="rId10"/>
+    <sheet name="Boltzmann Averaging" sheetId="21" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="A" localSheetId="6">'Ambient Air'!#REF!</definedName>
@@ -345,7 +346,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="40">
   <si>
     <t>s</t>
   </si>
@@ -441,6 +442,30 @@
   </si>
   <si>
     <t>Expected Speed of Sound</t>
+  </si>
+  <si>
+    <t>Substance</t>
+  </si>
+  <si>
+    <t>Calc Boltzmann</t>
+  </si>
+  <si>
+    <t>Helium</t>
+  </si>
+  <si>
+    <t>Helium (2)</t>
+  </si>
+  <si>
+    <t>Argon</t>
+  </si>
+  <si>
+    <t>Carbon Dioxide</t>
+  </si>
+  <si>
+    <t>Exp Boltzmann</t>
+  </si>
+  <si>
+    <t>Avg Calc Boltz</t>
   </si>
 </sst>
 </file>
@@ -21799,8 +21824,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE80F183-94C3-462E-929A-8B177ED986F7}">
   <dimension ref="A1:J151"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24063,7 +24088,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA6EE0F8-9662-4DE9-B850-BC544A3C720E}">
   <dimension ref="A1:AA151"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
+    <sheetView zoomScale="92" workbookViewId="0">
       <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
@@ -26768,12 +26793,125 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7B2D0C6-04F7-4156-80F0-B2CA1AE013F6}">
+  <dimension ref="A1:B12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2">
+        <v>1.3032885557604572E-23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3">
+        <v>1.3039916767890298E-23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4">
+        <v>1.3733489822225184E-23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>36</v>
+      </c>
+      <c r="B5">
+        <v>1.3692015248416912E-23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>28</v>
+      </c>
+      <c r="B6">
+        <v>1.3694285796167179E-23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B7">
+        <v>1.3724271048596867E-23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9">
+        <f>AVERAGE(B2:B7)</f>
+        <v>1.3486144040150168E-23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="1">
+        <f>1.38064852*10^(-23)</f>
+        <v>1.3806485200000002E-23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B11" s="1">
+        <f>B10-B9</f>
+        <v>3.2034115984983337E-25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" s="1">
+        <f>B11/B10*100</f>
+        <v>2.3202223825208845</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF54F6DF-CA18-4A18-9FA0-A7B1C612620E}">
   <dimension ref="A1:J151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29490,7 +29628,7 @@
   <dimension ref="A1:AA151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32207,7 +32345,7 @@
   <dimension ref="A1:AA151"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -34924,11 +35062,12 @@
   <dimension ref="A1:AH151"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="7" max="7" width="18.7109375" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.5703125" bestFit="1" customWidth="1"/>
@@ -39905,7 +40044,7 @@
   <dimension ref="A1:AA151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13:J14"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -42620,7 +42759,7 @@
   <dimension ref="A1:AA112"/>
   <sheetViews>
     <sheetView zoomScale="92" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Peaks2.xlsx
+++ b/Peaks2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Sound-Resonance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2E49786-0178-4C13-BA80-D207C880B702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EEA0527-ECF2-4839-B821-794EEE85AB1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="10" xr2:uid="{4712D59E-E23F-4109-B93A-0CDC273C7BF4}"/>
+    <workbookView xWindow="17535" yWindow="4080" windowWidth="21600" windowHeight="11385" firstSheet="9" activeTab="10" xr2:uid="{4712D59E-E23F-4109-B93A-0CDC273C7BF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Helium" sheetId="1" r:id="rId1"/>
@@ -346,7 +346,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="48">
   <si>
     <t>s</t>
   </si>
@@ -467,13 +467,38 @@
   <si>
     <t>Avg Calc Boltz</t>
   </si>
+  <si>
+    <t>Std Dev</t>
+  </si>
+  <si>
+    <t>Mean</t>
+  </si>
+  <si>
+    <t>Standard Error</t>
+  </si>
+  <si>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>Standard Deviation</t>
+  </si>
+  <si>
+    <t>Z score</t>
+  </si>
+  <si>
+    <t>So -1 sigma off</t>
+  </si>
+  <si>
+    <t>Z score improved</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.00000E+00"/>
+    <numFmt numFmtId="167" formatCode="0.00000000E+00"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -504,9 +529,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -26795,45 +26821,65 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7B2D0C6-04F7-4156-80F0-B2CA1AE013F6}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>32</v>
       </c>
       <c r="B1" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1">
+        <v>1.3486144040150168E-23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>34</v>
       </c>
       <c r="B2">
         <v>1.3032885557604572E-23</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>42</v>
+      </c>
+      <c r="G2">
+        <v>1.4237888227790316E-25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>35</v>
       </c>
       <c r="B3">
         <v>1.3039916767890298E-23</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>43</v>
+      </c>
+      <c r="G3">
+        <v>1.3693150522292046E-23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -26841,15 +26887,21 @@
         <v>1.3733489822225184E-23</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>36</v>
       </c>
       <c r="B5">
         <v>1.3692015248416912E-23</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G5">
+        <v>3.4875561172865739E-25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>28</v>
       </c>
@@ -26857,7 +26909,7 @@
         <v>1.3694285796167179E-23</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>37</v>
       </c>
@@ -26865,7 +26917,7 @@
         <v>1.3724271048596867E-23</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -26873,8 +26925,15 @@
         <f>AVERAGE(B2:B7)</f>
         <v>1.3486144040150168E-23</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="2">
+        <f>_xlfn.STDEV.P(B2:B7)</f>
+        <v>3.1836885933383156E-25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>38</v>
       </c>
@@ -26882,8 +26941,22 @@
         <f>1.38064852*10^(-23)</f>
         <v>1.3806485200000002E-23</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C10" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="1">
+        <f>(B9-B10)/D9</f>
+        <v>-1.0061950170633169</v>
+      </c>
+      <c r="E10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="1">
+        <f>(G1-B10)/G5</f>
+        <v>-0.9185261801581236</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>15</v>
       </c>
@@ -26891,8 +26964,11 @@
         <f>B10-B9</f>
         <v>3.2034115984983337E-25</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>16</v>
       </c>

--- a/Peaks2.xlsx
+++ b/Peaks2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Sound-Resonance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EEA0527-ECF2-4839-B821-794EEE85AB1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18320024-025B-4A52-BBAD-D1C908106AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17535" yWindow="4080" windowWidth="21600" windowHeight="11385" firstSheet="9" activeTab="10" xr2:uid="{4712D59E-E23F-4109-B93A-0CDC273C7BF4}"/>
+    <workbookView xWindow="7200" yWindow="4080" windowWidth="21600" windowHeight="11385" firstSheet="7" activeTab="9" xr2:uid="{4712D59E-E23F-4109-B93A-0CDC273C7BF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Helium" sheetId="1" r:id="rId1"/>
@@ -346,7 +346,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="49">
   <si>
     <t>s</t>
   </si>
@@ -491,14 +491,18 @@
   <si>
     <t>Z score improved</t>
   </si>
+  <si>
+    <t>Ex Speed of Sound</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.00000E+00"/>
-    <numFmt numFmtId="167" formatCode="0.00000000E+00"/>
+    <numFmt numFmtId="165" formatCode="0.00000000E+00"/>
+    <numFmt numFmtId="168" formatCode="0.000000000E+00"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -529,10 +533,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -24114,12 +24119,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA6EE0F8-9662-4DE9-B850-BC544A3C720E}">
   <dimension ref="A1:AA151"/>
   <sheetViews>
-    <sheetView zoomScale="92" workbookViewId="0">
-      <selection activeCell="H24" sqref="H24"/>
+    <sheetView tabSelected="1" zoomScale="92" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -24545,8 +24551,8 @@
         <v>30</v>
       </c>
       <c r="H18">
-        <f>SQRT(H14*H15)</f>
-        <v>344.59393070139419</v>
+        <f>2*H12*H2</f>
+        <v>341.25000000000006</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
@@ -24564,6 +24570,13 @@
       </c>
       <c r="E19">
         <v>100</v>
+      </c>
+      <c r="G19" t="s">
+        <v>48</v>
+      </c>
+      <c r="H19">
+        <f>2*H12*H16</f>
+        <v>344.59393070139419</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
@@ -26823,8 +26836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7B2D0C6-04F7-4156-80F0-B2CA1AE013F6}">
   <dimension ref="A1:G12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -26834,7 +26847,7 @@
     <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -26847,8 +26860,8 @@
       <c r="F1" t="s">
         <v>41</v>
       </c>
-      <c r="G1">
-        <v>1.3486144040150168E-23</v>
+      <c r="G1" s="1">
+        <v>1.3486144040150201E-23</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -26897,7 +26910,7 @@
       <c r="F5" t="s">
         <v>44</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="3">
         <v>3.4875561172865739E-25</v>
       </c>
     </row>
@@ -26937,7 +26950,7 @@
       <c r="A10" t="s">
         <v>38</v>
       </c>
-      <c r="B10" s="1">
+      <c r="B10" s="2">
         <f>1.38064852*10^(-23)</f>
         <v>1.3806485200000002E-23</v>
       </c>
@@ -26953,7 +26966,7 @@
       </c>
       <c r="F10" s="1">
         <f>(G1-B10)/G5</f>
-        <v>-0.9185261801581236</v>
+        <v>-0.91852618015803089</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -26979,6 +26992,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -42835,7 +42849,7 @@
   <dimension ref="A1:AA112"/>
   <sheetViews>
     <sheetView zoomScale="92" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44902,12 +44916,12 @@
   <dimension ref="A1:AA151"/>
   <sheetViews>
     <sheetView zoomScale="92" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18:H18"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -45333,8 +45347,8 @@
         <v>30</v>
       </c>
       <c r="H18">
-        <f>SQRT(H14*H15)</f>
-        <v>344.75902236329983</v>
+        <f>2*H12*H2</f>
+        <v>342.65000000000003</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
@@ -45352,6 +45366,13 @@
       </c>
       <c r="E19">
         <v>100</v>
+      </c>
+      <c r="G19" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19">
+        <f>2*H12*H16</f>
+        <v>344.75902236329983</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
@@ -47612,12 +47633,12 @@
   <dimension ref="A1:AA151"/>
   <sheetViews>
     <sheetView zoomScale="92" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18:H18"/>
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -48043,8 +48064,8 @@
         <v>30</v>
       </c>
       <c r="H18">
-        <f>SQRT(H14*H15)</f>
-        <v>345.27410662169603</v>
+        <f>2*H12*H2</f>
+        <v>342.82500000000005</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
@@ -48062,6 +48083,13 @@
       </c>
       <c r="E19">
         <v>100</v>
+      </c>
+      <c r="G19" t="s">
+        <v>48</v>
+      </c>
+      <c r="H19">
+        <f>2*H12*H16</f>
+        <v>345.27410662169603</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">

--- a/Peaks2.xlsx
+++ b/Peaks2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Max\Documents\GitHub\Sound-Resonance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22A048FD-CB95-48E2-8717-A24374C69766}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3D695E0-25B0-4B01-A4A1-E7813196128C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="4" activeTab="11" xr2:uid="{4712D59E-E23F-4109-B93A-0CDC273C7BF4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="762" activeTab="11" xr2:uid="{4712D59E-E23F-4109-B93A-0CDC273C7BF4}"/>
   </bookViews>
   <sheets>
     <sheet name="Helium" sheetId="1" r:id="rId1"/>
@@ -23,11 +23,13 @@
     <sheet name="Dry Ambient Air" sheetId="16" r:id="rId8"/>
     <sheet name="Exhaled Air" sheetId="17" r:id="rId9"/>
     <sheet name="Excersize Exhaled Air" sheetId="18" r:id="rId10"/>
-    <sheet name="Boltzmann Averaging" sheetId="21" r:id="rId11"/>
-    <sheet name="Mass vs Speed" sheetId="22" r:id="rId12"/>
+    <sheet name="Ambient Comp" sheetId="24" r:id="rId11"/>
+    <sheet name="Boltzmann Averaging" sheetId="21" r:id="rId12"/>
+    <sheet name="Mass vs Speed" sheetId="22" r:id="rId13"/>
   </sheets>
   <definedNames>
     <definedName name="A" localSheetId="6">'Ambient Air'!#REF!</definedName>
+    <definedName name="A" localSheetId="10">'Ambient Comp'!#REF!</definedName>
     <definedName name="A" localSheetId="4">Argon!#REF!</definedName>
     <definedName name="A" localSheetId="5">'Carbon Dioxide (Pure)'!$H$1</definedName>
     <definedName name="A" localSheetId="7">'Dry Ambient Air'!#REF!</definedName>
@@ -38,6 +40,7 @@
     <definedName name="A" localSheetId="2">Oxygen!$H$1</definedName>
     <definedName name="A">Helium!#REF!</definedName>
     <definedName name="mu" localSheetId="6">'Ambient Air'!#REF!</definedName>
+    <definedName name="mu" localSheetId="10">'Ambient Comp'!#REF!</definedName>
     <definedName name="mu" localSheetId="4">Argon!#REF!</definedName>
     <definedName name="mu" localSheetId="5">'Carbon Dioxide (Pure)'!$H$2</definedName>
     <definedName name="mu" localSheetId="7">'Dry Ambient Air'!#REF!</definedName>
@@ -48,6 +51,7 @@
     <definedName name="mu" localSheetId="2">Oxygen!$H$2</definedName>
     <definedName name="mu">Helium!#REF!</definedName>
     <definedName name="sigma" localSheetId="6">'Ambient Air'!#REF!</definedName>
+    <definedName name="sigma" localSheetId="10">'Ambient Comp'!#REF!</definedName>
     <definedName name="sigma" localSheetId="4">Argon!#REF!</definedName>
     <definedName name="sigma" localSheetId="5">'Carbon Dioxide (Pure)'!$H$3</definedName>
     <definedName name="sigma" localSheetId="7">'Dry Ambient Air'!#REF!</definedName>
@@ -58,6 +62,7 @@
     <definedName name="sigma" localSheetId="2">Oxygen!$H$3</definedName>
     <definedName name="sigma">Helium!#REF!</definedName>
     <definedName name="solver_adj" localSheetId="6" hidden="1">'Ambient Air'!#REF!</definedName>
+    <definedName name="solver_adj" localSheetId="10" hidden="1">'Ambient Comp'!#REF!</definedName>
     <definedName name="solver_adj" localSheetId="4" hidden="1">Argon!#REF!</definedName>
     <definedName name="solver_adj" localSheetId="5" hidden="1">'Carbon Dioxide (Pure)'!$H$1:$H$3</definedName>
     <definedName name="solver_adj" localSheetId="7" hidden="1">'Dry Ambient Air'!#REF!</definedName>
@@ -68,6 +73,7 @@
     <definedName name="solver_adj" localSheetId="3" hidden="1">Nitrogen!$H$1:$H$3</definedName>
     <definedName name="solver_adj" localSheetId="2" hidden="1">Oxygen!$H$1:$H$3</definedName>
     <definedName name="solver_cvg" localSheetId="6" hidden="1">0.0001</definedName>
+    <definedName name="solver_cvg" localSheetId="10" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="4" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="5" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="7" hidden="1">0.0001</definedName>
@@ -78,6 +84,7 @@
     <definedName name="solver_cvg" localSheetId="3" hidden="1">0.0001</definedName>
     <definedName name="solver_cvg" localSheetId="2" hidden="1">0.0001</definedName>
     <definedName name="solver_drv" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_drv" localSheetId="10" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="7" hidden="1">1</definedName>
@@ -88,6 +95,7 @@
     <definedName name="solver_drv" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_drv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_eng" localSheetId="10" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="7" hidden="1">1</definedName>
@@ -98,6 +106,7 @@
     <definedName name="solver_eng" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_eng" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_est" localSheetId="10" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="7" hidden="1">1</definedName>
@@ -108,6 +117,7 @@
     <definedName name="solver_est" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_est" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_itr" localSheetId="6" hidden="1">2147483647</definedName>
+    <definedName name="solver_itr" localSheetId="10" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="7" hidden="1">2147483647</definedName>
@@ -118,6 +128,7 @@
     <definedName name="solver_itr" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_itr" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="6" hidden="1">2147483647</definedName>
+    <definedName name="solver_mip" localSheetId="10" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="7" hidden="1">2147483647</definedName>
@@ -128,6 +139,7 @@
     <definedName name="solver_mip" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_mip" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="6" hidden="1">30</definedName>
+    <definedName name="solver_mni" localSheetId="10" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="4" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="5" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="7" hidden="1">30</definedName>
@@ -138,6 +150,7 @@
     <definedName name="solver_mni" localSheetId="3" hidden="1">30</definedName>
     <definedName name="solver_mni" localSheetId="2" hidden="1">30</definedName>
     <definedName name="solver_mrt" localSheetId="6" hidden="1">0.075</definedName>
+    <definedName name="solver_mrt" localSheetId="10" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="4" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="5" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="7" hidden="1">0.075</definedName>
@@ -148,6 +161,7 @@
     <definedName name="solver_mrt" localSheetId="3" hidden="1">0.075</definedName>
     <definedName name="solver_mrt" localSheetId="2" hidden="1">0.075</definedName>
     <definedName name="solver_msl" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_msl" localSheetId="10" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="7" hidden="1">2</definedName>
@@ -158,6 +172,7 @@
     <definedName name="solver_msl" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_msl" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_neg" localSheetId="10" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="7" hidden="1">1</definedName>
@@ -168,6 +183,7 @@
     <definedName name="solver_neg" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_neg" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="6" hidden="1">2147483647</definedName>
+    <definedName name="solver_nod" localSheetId="10" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="7" hidden="1">2147483647</definedName>
@@ -178,6 +194,7 @@
     <definedName name="solver_nod" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_nod" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_num" localSheetId="6" hidden="1">0</definedName>
+    <definedName name="solver_num" localSheetId="10" hidden="1">0</definedName>
     <definedName name="solver_num" localSheetId="4" hidden="1">0</definedName>
     <definedName name="solver_num" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_num" localSheetId="7" hidden="1">0</definedName>
@@ -188,6 +205,7 @@
     <definedName name="solver_num" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_num" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_nwt" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_nwt" localSheetId="10" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="7" hidden="1">1</definedName>
@@ -198,6 +216,7 @@
     <definedName name="solver_nwt" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_nwt" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_opt" localSheetId="6" hidden="1">'Ambient Air'!#REF!</definedName>
+    <definedName name="solver_opt" localSheetId="10" hidden="1">'Ambient Comp'!#REF!</definedName>
     <definedName name="solver_opt" localSheetId="4" hidden="1">Argon!#REF!</definedName>
     <definedName name="solver_opt" localSheetId="5" hidden="1">'Carbon Dioxide (Pure)'!$H$6</definedName>
     <definedName name="solver_opt" localSheetId="7" hidden="1">'Dry Ambient Air'!#REF!</definedName>
@@ -208,6 +227,7 @@
     <definedName name="solver_opt" localSheetId="3" hidden="1">Nitrogen!$H$6</definedName>
     <definedName name="solver_opt" localSheetId="2" hidden="1">Oxygen!$H$6</definedName>
     <definedName name="solver_pre" localSheetId="6" hidden="1">0.000001</definedName>
+    <definedName name="solver_pre" localSheetId="10" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="4" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="5" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="7" hidden="1">0.000001</definedName>
@@ -218,6 +238,7 @@
     <definedName name="solver_pre" localSheetId="3" hidden="1">0.000001</definedName>
     <definedName name="solver_pre" localSheetId="2" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_rbv" localSheetId="10" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="7" hidden="1">1</definedName>
@@ -228,6 +249,7 @@
     <definedName name="solver_rbv" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_rbv" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_rlx" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_rlx" localSheetId="10" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="7" hidden="1">2</definedName>
@@ -238,6 +260,7 @@
     <definedName name="solver_rlx" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_rlx" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_rsd" localSheetId="6" hidden="1">0</definedName>
+    <definedName name="solver_rsd" localSheetId="10" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="4" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="7" hidden="1">0</definedName>
@@ -248,6 +271,7 @@
     <definedName name="solver_rsd" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_rsd" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="6" hidden="1">1</definedName>
+    <definedName name="solver_scl" localSheetId="10" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="4" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="5" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="7" hidden="1">1</definedName>
@@ -258,6 +282,7 @@
     <definedName name="solver_scl" localSheetId="3" hidden="1">1</definedName>
     <definedName name="solver_scl" localSheetId="2" hidden="1">1</definedName>
     <definedName name="solver_sho" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_sho" localSheetId="10" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="7" hidden="1">2</definedName>
@@ -268,6 +293,7 @@
     <definedName name="solver_sho" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_sho" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_ssz" localSheetId="6" hidden="1">100</definedName>
+    <definedName name="solver_ssz" localSheetId="10" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="4" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="5" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="7" hidden="1">100</definedName>
@@ -278,6 +304,7 @@
     <definedName name="solver_ssz" localSheetId="3" hidden="1">100</definedName>
     <definedName name="solver_ssz" localSheetId="2" hidden="1">100</definedName>
     <definedName name="solver_tim" localSheetId="6" hidden="1">2147483647</definedName>
+    <definedName name="solver_tim" localSheetId="10" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="4" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="5" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="7" hidden="1">2147483647</definedName>
@@ -288,6 +315,7 @@
     <definedName name="solver_tim" localSheetId="3" hidden="1">2147483647</definedName>
     <definedName name="solver_tim" localSheetId="2" hidden="1">2147483647</definedName>
     <definedName name="solver_tol" localSheetId="6" hidden="1">0.01</definedName>
+    <definedName name="solver_tol" localSheetId="10" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="4" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="5" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="7" hidden="1">0.01</definedName>
@@ -298,6 +326,7 @@
     <definedName name="solver_tol" localSheetId="3" hidden="1">0.01</definedName>
     <definedName name="solver_tol" localSheetId="2" hidden="1">0.01</definedName>
     <definedName name="solver_typ" localSheetId="6" hidden="1">2</definedName>
+    <definedName name="solver_typ" localSheetId="10" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="4" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="5" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="7" hidden="1">2</definedName>
@@ -308,6 +337,7 @@
     <definedName name="solver_typ" localSheetId="3" hidden="1">2</definedName>
     <definedName name="solver_typ" localSheetId="2" hidden="1">2</definedName>
     <definedName name="solver_val" localSheetId="6" hidden="1">0</definedName>
+    <definedName name="solver_val" localSheetId="10" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="4" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="5" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="7" hidden="1">0</definedName>
@@ -318,6 +348,7 @@
     <definedName name="solver_val" localSheetId="3" hidden="1">0</definedName>
     <definedName name="solver_val" localSheetId="2" hidden="1">0</definedName>
     <definedName name="solver_ver" localSheetId="6" hidden="1">3</definedName>
+    <definedName name="solver_ver" localSheetId="10" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="4" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="5" hidden="1">3</definedName>
     <definedName name="solver_ver" localSheetId="7" hidden="1">3</definedName>
@@ -347,7 +378,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="65">
   <si>
     <t>s</t>
   </si>
@@ -503,6 +534,45 @@
   </si>
   <si>
     <t>Atomic Mass</t>
+  </si>
+  <si>
+    <t>&lt;-</t>
+  </si>
+  <si>
+    <t>Exhaled</t>
+  </si>
+  <si>
+    <t>after</t>
+  </si>
+  <si>
+    <t>Excersize</t>
+  </si>
+  <si>
+    <t>Exhaled Air</t>
+  </si>
+  <si>
+    <t>Normal</t>
+  </si>
+  <si>
+    <t>Dry Ambient</t>
+  </si>
+  <si>
+    <t>Air</t>
+  </si>
+  <si>
+    <t>Co2</t>
+  </si>
+  <si>
+    <t>Adjust mass</t>
+  </si>
+  <si>
+    <t>Pressure Change</t>
+  </si>
+  <si>
+    <t>Avg Temp Change</t>
+  </si>
+  <si>
+    <t>Avg Pressure Change</t>
   </si>
 </sst>
 </file>
@@ -4229,6 +4299,4248 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US" sz="2000"/>
+              <a:t>Exhaled Air after Excersize</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000" baseline="0"/>
+              <a:t> 1st</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2000"/>
+              <a:t> Resonance Peak</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Exhaled After Excersize</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="50800" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ambient Comp'!$A$1:$A$151</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="151"/>
+                <c:pt idx="0">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1901</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1902</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1903</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1904</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1905</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1906</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1907</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1908</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1909</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1910</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1911</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1912</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1913</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1914</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1915</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1916</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1917</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1918</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1919</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1920</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1921</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1922</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1923</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1924</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1925</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1926</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1927</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1928</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1929</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1930</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1931</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1932</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1933</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1934</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1935</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1936</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1937</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1938</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1939</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1940</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1941</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1942</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1943</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1944</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1945</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1946</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1947</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1948</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1949</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1951</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1952</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1953</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1954</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1955</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1956</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1957</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1958</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1959</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1960</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1961</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1962</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1963</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1964</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1965</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1966</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1967</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1968</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1969</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1971</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1972</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1973</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1974</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1975</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1977</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1978</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1979</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ambient Comp'!$B$1:$B$151</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="151"/>
+                <c:pt idx="0">
+                  <c:v>5.4128800000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.5246300000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.6401199999999996</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.7630499999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.8915749999999996</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0294100000000004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6.1672450000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.3125349999999996</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6.4689949999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6.6291849999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6.7949599999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6.9700499999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7.1563100000000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7.3574799999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>7.5586399999999996</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7.7803250000000004</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8.0057050000000007</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>8.2515800000000006</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>8.5086200000000005</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.7861550000000008</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9.0804550000000006</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>9.3840649999999997</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>9.7212049999999994</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>10.075100000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>10.456899999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>10.864850000000001</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>11.31005</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>11.7906</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>12.308400000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>12.870950000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>13.487450000000001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>14.154299999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>14.89565</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>15.7059</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>16.6112</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>17.618849999999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>18.738350000000001</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>19.997499999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>21.424299999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>23.044750000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>24.8888</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>27.002849999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>29.4299</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>32.214649999999999</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>35.401699999999998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>39.003999999999998</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>42.939799999999998</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47.020850000000003</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>50.820599999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>53.689100000000003</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>54.9557</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>54.253500000000003</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>51.798549999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>48.229700000000001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>44.23245</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>40.292949999999998</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>36.645899999999997</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>33.388150000000003</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>30.527149999999999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>28.036650000000002</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>25.872299999999999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>23.974250000000001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>22.318300000000001</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>20.859850000000002</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>19.5672</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>18.421700000000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>17.391649999999998</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>16.471499999999999</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>15.6426</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>14.88815</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>14.204599999999999</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>13.5787</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>13.001300000000001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>12.472300000000001</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>11.98615</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>11.5373</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>11.12</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>10.7326</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>10.373150000000001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>10.0397</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>9.7193400000000008</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>9.4213199999999997</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>9.145645</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>8.8830150000000003</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>8.6334199999999992</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>8.3968600000000002</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>8.1845199999999991</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>7.9703150000000003</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>7.7747400000000004</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>7.5809899999999999</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>7.404045</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>7.23454</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>7.0706300000000004</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>6.9160300000000001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>6.765155</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>6.6198699999999997</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>6.4894800000000004</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>6.3609600000000004</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>6.2324400000000004</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>6.1188200000000004</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>6.0014700000000003</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>5.8859899999999996</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>5.7798150000000001</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>5.6810999999999998</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>5.5805100000000003</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>5.4873799999999999</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>5.3942500000000004</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>5.3048450000000003</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>5.2228899999999996</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>5.14093</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>5.0571099999999998</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>4.98447</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>4.9118250000000003</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>4.8354600000000003</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>4.76654</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>4.7013499999999997</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>4.63056</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>4.5653750000000004</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>4.5001800000000003</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>4.4443000000000001</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>4.3846999999999996</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>4.3288200000000003</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>4.2729400000000002</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>4.222645</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>4.1686300000000003</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>4.1164699999999996</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>4.0661849999999999</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>4.0196199999999997</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>3.9655999999999998</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>3.9246249999999998</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>3.8761950000000001</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>3.8314900000000001</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>3.79236</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>3.74952</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>3.70668</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>3.6694300000000002</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>3.6321699999999999</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>3.5911900000000001</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>3.5502199999999999</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>3.5185499999999998</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>3.4831599999999998</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>3.4477699999999998</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>3.4161100000000002</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>3.3825799999999999</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>3.3509150000000001</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>3.3173849999999998</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>3.28572</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>3.2559200000000001</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>3.2279800000000001</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>3.20004</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>3.1702400000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-DA40-424D-9F82-384781468577}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Exhaled Air (Normal)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ambient Comp'!$D$1:$D$151</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="151"/>
+                <c:pt idx="0">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1901</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1902</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1903</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1904</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1905</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1906</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1907</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1908</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1909</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1910</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1911</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1912</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1913</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1914</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1915</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1916</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1917</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1918</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1919</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1920</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1921</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1922</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1923</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1924</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1925</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1926</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1927</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1928</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1929</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1930</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1931</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1932</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1933</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1934</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1935</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1936</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1937</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1938</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1939</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1940</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1941</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1942</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1943</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1944</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1945</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1946</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1947</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1948</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1949</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1951</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1952</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1953</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1954</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1955</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1956</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1957</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1958</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1959</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1960</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1961</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1962</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1963</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1964</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1965</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1966</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1967</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1968</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1969</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1971</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1972</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1973</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1974</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1975</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1977</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1978</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1979</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ambient Comp'!$E$1:$E$151</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="151"/>
+                <c:pt idx="0">
+                  <c:v>4.5212899999999996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.5970399999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.6864400000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.7677800000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.8596700000000004</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.9509400000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.05152</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.1508669999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.2564099999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.3625850000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.4780699999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.5997620000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.7208370000000004</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5.8487299999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>5.98285</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.1213030000000002</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.2696899999999998</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.4211869999999998</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>6.5826200000000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.7465299999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>6.9253400000000003</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.1122269999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.3078070000000004</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>7.5114530000000004</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>7.7275530000000003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>7.9591399999999997</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.2012850000000004</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>8.4577080000000002</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>8.7333800000000004</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.02271</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>9.3319100000000006</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>9.6634620000000009</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10.0174</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>10.396682999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>10.804017</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>11.243617</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>11.71795</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>12.233283</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>12.793933000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>13.403682999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>14.071116999999999</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>14.804399999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>15.6091</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>16.5032</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>17.498417</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>18.6098</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>19.854666999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>21.259699999999999</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>22.852882999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>24.664650000000002</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>26.729717000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>29.1021</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>31.805533</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>34.881999999999998</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>38.316066999999997</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>42.037633</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>45.823149999999998</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>49.276499999999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>51.803483</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>52.818016999999998</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>52.040649999999999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>49.706183000000003</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>46.379483</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>42.656033000000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>38.973582999999998</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>35.541967</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>32.466132999999999</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>29.748449999999998</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>27.369800000000001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>25.292950000000001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>23.469417</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>21.872533000000001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>20.4557</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>19.203382999999999</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>18.089483000000001</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>17.093599999999999</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>16.193332999999999</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>15.383067</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>14.646050000000001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>13.97545</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>13.3627</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>12.803900000000001</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>12.287333</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>11.809200000000001</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>11.3659</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>10.959899999999999</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>10.5762</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>10.222917000000001</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>9.8919429999999995</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>9.5808800000000005</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9.2890700000000006</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>9.0165030000000002</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>8.7557329999999993</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>8.5135900000000007</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>8.2850999999999999</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>8.0665530000000008</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>7.8597999999999999</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>7.6629800000000001</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>7.4748250000000001</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>7.3022169999999997</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>7.1339600000000001</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>6.9762570000000004</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>6.8235200000000003</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>6.67699</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>6.5410180000000002</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>6.4013200000000001</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>6.2765199999999997</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>6.1523450000000004</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>6.0356199999999998</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>5.9195200000000003</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>5.8102419999999997</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>5.7053099999999999</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>5.6041100000000004</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>5.5091099999999997</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>5.4128800000000004</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>5.320983</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>5.2377900000000004</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>5.1521100000000004</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>5.0707700000000004</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>4.9925379999999997</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>4.91493</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>4.8391799999999998</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>4.7715079999999999</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>4.6994850000000001</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>4.6318029999999997</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>4.5641319999999999</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>4.5032880000000004</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>4.4443000000000001</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>4.3815920000000004</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>4.3269549999999999</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>4.2692129999999997</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>4.21333</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>4.1599370000000002</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>4.1127500000000001</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>4.0562480000000001</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>4.0103049999999998</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>3.96001</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>3.9128219999999998</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>3.869367</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>3.8252799999999998</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>3.7824230000000001</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>3.7395879999999999</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>3.69923</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>3.6576279999999999</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>3.6160299999999999</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>3.5800200000000002</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>3.5452499999999998</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>3.507997</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>3.4719899999999999</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>3.4347300000000001</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>3.4024429999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-DA40-424D-9F82-384781468577}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Dry Ambient Air</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ambient Comp'!$G$1:$G$151</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="151"/>
+                <c:pt idx="0">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1901</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1902</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1903</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1904</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1905</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1906</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1907</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1908</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1909</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1910</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1911</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1912</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1913</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1914</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1915</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1916</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1917</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1918</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1919</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1920</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1921</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1922</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1923</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1924</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1925</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1926</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1927</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1928</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1929</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1930</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1931</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1932</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1933</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1934</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1935</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1936</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1937</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1938</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1939</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1940</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1941</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1942</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1943</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1944</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1945</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1946</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1947</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1948</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1949</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1950</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1951</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1952</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1953</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1954</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1955</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1956</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1957</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1958</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1959</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1960</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1961</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1962</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1963</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1964</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1965</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1966</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1967</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1968</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1969</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1970</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1971</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1972</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1973</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1974</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1975</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1976</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1977</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1978</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1979</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1980</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1981</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1982</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1983</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1984</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1985</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1986</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1987</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1988</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1989</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1990</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1991</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1992</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1993</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1994</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1995</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1996</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1997</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1998</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1999</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2001</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2002</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2003</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2004</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2005</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2006</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2007</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>2008</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>2009</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>2010</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>2011</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>2012</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>2013</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>2014</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>2015</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>2016</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>2022</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>2023</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>2024</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>2025</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>2026</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>2027</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>2028</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>2029</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>2030</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>2031</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>2032</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>2033</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>2034</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>2035</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>2037</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>2038</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>2039</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>2040</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>2041</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>2042</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>2043</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>2044</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>2045</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>2046</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>2047</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>2048</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>2049</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>2050</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ambient Comp'!$H$1:$H$151</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="151"/>
+                <c:pt idx="0">
+                  <c:v>4.791995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.8776729999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.9683270000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.062697</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.1595599999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5.2595169999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.3663100000000004</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.47621</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.5885819999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>5.7102779999999997</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.8332100000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.9604900000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.0983299999999998</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>6.2361700000000004</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.3851779999999998</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.5379100000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.7024480000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6.870082</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>7.0507600000000004</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>7.23827</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>7.4350880000000004</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>7.641248</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.8579400000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>8.0901479999999992</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>8.3291880000000003</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>8.5905799999999992</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>8.8656279999999992</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>9.1518569999999997</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>9.4623000000000008</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>9.7839130000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>10.1372</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>10.5166</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>10.919517000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>11.349767</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>11.819167</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>12.327</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>12.878399999999999</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>13.478149999999999</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>14.134416999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>14.854649999999999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>15.648217000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>16.526116999999999</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>17.500299999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>18.58745</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>19.808116999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>21.179632999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>22.735600000000002</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>24.508800000000001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>26.540949999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>28.877967000000002</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>31.578900000000001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>34.684567000000001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>38.245916999999999</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>42.244399999999999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>46.576317000000003</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>50.942332999999998</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>54.757632999999998</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57.246766999999998</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>57.716166999999999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>56.033549999999998</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>52.706249999999997</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>48.548833000000002</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>44.212000000000003</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>40.109833000000002</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>36.41245</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>33.161499999999997</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>30.33455</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>27.883900000000001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>25.746832999999999</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>23.887933</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>22.2606</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>20.827583000000001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>19.556667000000001</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>18.427866999999999</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>17.415800000000001</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>16.506283</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>15.686067</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>14.944050000000001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>14.264817000000001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>13.645182999999999</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>13.076433</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>12.554917</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>12.073700000000001</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>11.6267</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>11.212583</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>10.833817</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>10.477449999999999</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>10.137217</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>9.8224070000000001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>9.5293500000000009</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>9.250572</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>8.9910449999999997</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>8.7395899999999997</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>8.5123499999999996</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>8.2888300000000008</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>8.0764849999999999</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>7.8778069999999998</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>7.6890599999999996</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>7.5071099999999999</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>7.3394719999999998</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>7.1755599999999999</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>7.0215800000000002</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>6.8694600000000001</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>6.7303870000000003</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>6.5925500000000001</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>6.4596799999999996</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>6.3330200000000003</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>6.2138099999999996</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>6.1045369999999997</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>5.9865729999999999</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>5.882263</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>5.7773300000000001</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>5.6736500000000003</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>5.5811320000000002</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>5.4886229999999996</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>5.3998350000000004</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>5.3129119999999999</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>5.2278529999999996</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>5.1459000000000001</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>5.0676629999999996</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>4.9931599999999996</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>4.9198969999999997</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>4.846012</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>4.7777149999999997</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>4.714385</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>4.6485719999999997</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>4.5827600000000004</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>4.5219120000000004</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>4.4629300000000001</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>4.4058070000000003</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>4.3486830000000003</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>4.2946679999999997</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>4.2394100000000003</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>4.1872579999999999</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>4.136965</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>4.0854299999999997</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>4.0419700000000001</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>3.994783</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>3.9500799999999998</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>3.9028900000000002</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>3.8631600000000001</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>3.8209369999999998</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>3.7749730000000001</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>3.7364799999999998</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>3.697365</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>3.6582479999999999</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>3.6203780000000001</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>3.5837400000000001</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>3.547733</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>3.5129600000000001</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>3.4800599999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-DA40-424D-9F82-384781468577}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>CO2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Ambient Comp'!$J$1:$J$151</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="151"/>
+                <c:pt idx="0">
+                  <c:v>1450</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1451</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1452</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1453</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1454</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1455</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1456</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1457</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1458</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1459</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1460</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1461</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1462</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1463</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1464</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1465</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1466</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1467</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1468</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1469</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1470</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1471</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1472</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1473</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1474</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1475</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1476</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1477</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1478</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1479</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1480</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1481</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1482</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1483</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1484</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1485</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1486</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1487</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1488</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1489</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1490</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1491</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1492</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1493</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1494</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1495</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1496</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1497</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1498</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1499</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1501</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1502</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1503</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1504</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1505</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1506</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1507</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1508</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1509</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1510</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1511</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1512</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1513</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1514</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1515</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1516</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1517</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1518</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1519</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1520</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1521</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1522</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1523</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1524</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1525</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1526</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1527</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1528</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1529</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1530</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1531</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1532</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1533</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1534</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1535</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1536</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1537</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1538</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1539</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1540</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1541</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1542</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1543</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1544</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1545</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1546</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1547</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1548</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1549</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1550</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1551</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1552</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1553</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1554</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1555</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1556</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1557</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1558</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1559</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1560</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1561</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1562</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1563</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1564</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1565</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1566</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1567</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1568</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1569</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1570</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1571</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1572</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1573</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1574</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1575</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1576</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1577</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1578</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1579</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1580</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1581</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1582</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1583</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1584</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1585</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1586</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1587</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1588</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1589</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1590</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1591</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1592</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1593</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1594</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1595</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>1596</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>1597</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>1598</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1599</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>1600</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Ambient Comp'!$K$1:$K$151</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="151"/>
+                <c:pt idx="0">
+                  <c:v>3.90103</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9556680000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0134100000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0661849999999999</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4.1251699999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4.1835300000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.2474819999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.312055</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4.3747629999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.4424400000000004</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>4.5113599999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.58338</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.6529199999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.7317679999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>4.8087580000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.8919579999999998</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>4.9732900000000004</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>5.0614569999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.1483819999999998</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5.2452379999999996</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>5.3389920000000002</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.4364699999999999</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.538297</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.644463</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.75312</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>5.8654999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>5.9834699999999996</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>6.1076449999999998</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>6.234305</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>6.363442</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>6.5043870000000004</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>6.6496700000000004</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>6.8011670000000004</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>6.95763</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>7.1227799999999997</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>7.2922849999999997</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>7.4742030000000002</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>7.6629800000000001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>7.8579400000000001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>8.0696600000000007</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>8.2888300000000008</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>8.5210399999999993</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>8.7619399999999992</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>9.02271</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>9.2878299999999996</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>9.5771580000000007</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9.8844930000000009</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>10.208017</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>10.555033</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>10.921367</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>11.315033</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>11.736549999999999</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>12.189817</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>12.6828</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>13.2118</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>13.786133</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>14.4095</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>15.098682999999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>15.846266999999999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>16.670183000000002</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>17.579799999999999</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>18.6005</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>19.726766999999999</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>21.001449999999998</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>22.448083</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>24.096533000000001</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>25.997050000000002</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>28.191866999999998</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>30.7898</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>33.874299999999998</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>37.5884</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>42.111533000000001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>47.722433000000002</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>54.759517000000002</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>63.653883</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>74.785633000000004</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>87.9024</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>100.682667</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>107.622333</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>104.049333</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>92.608699999999999</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>79.339200000000005</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>67.556117</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>58.008583000000002</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>50.448717000000002</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>44.448549999999997</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>39.620550000000001</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>35.687882999999999</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>32.425199999999997</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>29.700633</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>27.3841</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>25.399100000000001</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>23.684266999999998</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>22.181733000000001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>20.863600000000002</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>19.688300000000002</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>18.636467</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>17.690882999999999</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>16.838417</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>16.066683000000001</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>15.362583000000001</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>14.719932999999999</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>14.12825</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>13.5862</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>13.084533</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>12.620683</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>12.187967</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>11.782567</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>11.4032</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>11.049917000000001</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>10.722667</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>10.411583</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>10.11605</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>9.8373069999999991</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>9.5752930000000003</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>9.3263250000000006</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>9.0922499999999999</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>8.8699700000000004</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>8.6582519999999992</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>8.4570900000000009</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>8.2646149999999992</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>8.0845579999999995</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>7.91195</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>7.7461799999999998</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>7.5872070000000003</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>7.4357100000000003</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>7.2885600000000004</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>7.1501029999999997</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>7.0190999999999999</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>6.8918200000000001</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>6.7664</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>6.6496700000000004</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>6.5304599999999997</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>6.4211869999999998</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>6.3131570000000004</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>6.2082249999999997</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>6.1095100000000002</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>6.0163700000000002</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>5.9207599999999996</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>5.83073</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>5.7469099999999997</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>5.6624699999999999</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>5.5774080000000001</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>5.5016619999999996</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>5.4228120000000004</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>5.3483070000000001</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>5.2762830000000003</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>5.2067399999999999</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>5.1378219999999999</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>5.0707700000000004</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>5.0068169999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-DA40-424D-9F82-384781468577}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="684239104"/>
+        <c:axId val="684240352"/>
+        <c:extLst/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="684239104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2060"/>
+          <c:min val="1440"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Frequency (Hz)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="684240352"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="684240352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Intensity (mV)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="684239104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
               <a:rPr lang="en-US"/>
               <a:t>Atomic Molar Mass</a:t>
             </a:r>
@@ -16124,6 +20436,46 @@
 </file>
 
 <file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -17516,6 +21868,522 @@
 </file>
 
 <file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -22206,16 +27074,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>595104</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>367332</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>51766</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>480805</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>57151</xdr:rowOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>253033</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>108917</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -22246,6 +27114,49 @@
 </file>
 
 <file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>77440</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>113885</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>465896</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBAB79C1-B57F-448A-B998-4981B31E35EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -22930,7 +27841,7 @@
   <dimension ref="A1:J151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25194,16 +30105,17 @@
   <dimension ref="A1:AA151"/>
   <sheetViews>
     <sheetView zoomScale="92" workbookViewId="0">
-      <selection activeCell="I24" sqref="I24"/>
+      <selection activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1">
         <v>1900</v>
       </c>
@@ -25229,7 +30141,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1901</v>
       </c>
@@ -25258,7 +30170,7 @@
         <v>21.871582</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1902</v>
       </c>
@@ -25275,7 +30187,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>1903</v>
       </c>
@@ -25301,7 +30213,7 @@
         <v>0.74299999999999999</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>1904</v>
       </c>
@@ -25324,7 +30236,7 @@
         <v>1.0389999999999999</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>1905</v>
       </c>
@@ -25348,7 +30260,7 @@
         <v>4.6517768183327803E-26</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1906</v>
       </c>
@@ -25371,7 +30283,7 @@
         <v>0.78787799999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>1907</v>
       </c>
@@ -25397,7 +30309,7 @@
         <v>0.65800000000000003</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1908</v>
       </c>
@@ -25420,7 +30332,7 @@
         <v>0.91800000000000004</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1909</v>
       </c>
@@ -25444,7 +30356,7 @@
         <v>5.3136831617402857E-26</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>1910</v>
       </c>
@@ -25468,7 +30380,7 @@
         <v>21.871582</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>1911</v>
       </c>
@@ -25492,7 +30404,7 @@
         <v>8.7500000000000008E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>1912</v>
       </c>
@@ -25515,8 +30427,11 @@
         <f>1.38064852*10^(-23)</f>
         <v>1.3806485200000002E-23</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>1913</v>
       </c>
@@ -25539,8 +30454,12 @@
         <f>(H7*H5+(1-H7)*H9)/(H7*H4+(1-H7)*H8)</f>
         <v>1.397759569597419</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14" s="1">
+        <f>(H13*I2/(2*H12*H2)^2)*1.4/10^(-4)*6.022E+23</f>
+        <v>21.861844238252957</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>1914</v>
       </c>
@@ -25564,7 +30483,7 @@
         <v>84953.792954848483</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1915</v>
       </c>
@@ -27907,16 +32826,4008 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7B2D0C6-04F7-4156-80F0-B2CA1AE013F6}">
-  <dimension ref="A1:G12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7FA9F73-5236-4225-BAE5-4C29E1EF4043}">
+  <dimension ref="A1:AA151"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView zoomScale="92" workbookViewId="0">
+      <selection activeCell="AE20" sqref="AE20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.85546875" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="4.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1900</v>
+      </c>
+      <c r="B1">
+        <v>5.4128800000000004</v>
+      </c>
+      <c r="C1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D1">
+        <v>1900</v>
+      </c>
+      <c r="E1">
+        <v>4.5212899999999996</v>
+      </c>
+      <c r="F1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1">
+        <v>1900</v>
+      </c>
+      <c r="H1">
+        <v>4.791995</v>
+      </c>
+      <c r="I1" t="s">
+        <v>52</v>
+      </c>
+      <c r="J1">
+        <v>1450</v>
+      </c>
+      <c r="K1">
+        <v>3.90103</v>
+      </c>
+      <c r="L1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1901</v>
+      </c>
+      <c r="B2">
+        <v>5.5246300000000002</v>
+      </c>
+      <c r="C2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D2">
+        <v>1901</v>
+      </c>
+      <c r="E2">
+        <v>4.5970399999999998</v>
+      </c>
+      <c r="F2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2">
+        <v>1901</v>
+      </c>
+      <c r="H2">
+        <v>4.8776729999999997</v>
+      </c>
+      <c r="I2" t="s">
+        <v>58</v>
+      </c>
+      <c r="J2">
+        <v>1451</v>
+      </c>
+      <c r="K2">
+        <v>3.9556680000000002</v>
+      </c>
+      <c r="L2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1902</v>
+      </c>
+      <c r="B3">
+        <v>5.6401199999999996</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3">
+        <v>1902</v>
+      </c>
+      <c r="E3">
+        <v>4.6864400000000002</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3">
+        <v>1902</v>
+      </c>
+      <c r="H3">
+        <v>4.9683270000000004</v>
+      </c>
+      <c r="I3" t="s">
+        <v>59</v>
+      </c>
+      <c r="J3">
+        <v>1452</v>
+      </c>
+      <c r="K3">
+        <v>4.0134100000000004</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1903</v>
+      </c>
+      <c r="B4">
+        <v>5.7630499999999998</v>
+      </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4">
+        <v>1903</v>
+      </c>
+      <c r="E4">
+        <v>4.7677800000000001</v>
+      </c>
+      <c r="G4">
+        <v>1903</v>
+      </c>
+      <c r="H4">
+        <v>5.062697</v>
+      </c>
+      <c r="J4">
+        <v>1453</v>
+      </c>
+      <c r="K4">
+        <v>4.0661849999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1904</v>
+      </c>
+      <c r="B5">
+        <v>5.8915749999999996</v>
+      </c>
+      <c r="D5">
+        <v>1904</v>
+      </c>
+      <c r="E5">
+        <v>4.8596700000000004</v>
+      </c>
+      <c r="G5">
+        <v>1904</v>
+      </c>
+      <c r="H5">
+        <v>5.1595599999999999</v>
+      </c>
+      <c r="J5">
+        <v>1454</v>
+      </c>
+      <c r="K5">
+        <v>4.1251699999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1905</v>
+      </c>
+      <c r="B6">
+        <v>6.0294100000000004</v>
+      </c>
+      <c r="D6">
+        <v>1905</v>
+      </c>
+      <c r="E6">
+        <v>4.9509400000000001</v>
+      </c>
+      <c r="G6">
+        <v>1905</v>
+      </c>
+      <c r="H6">
+        <v>5.2595169999999998</v>
+      </c>
+      <c r="J6">
+        <v>1455</v>
+      </c>
+      <c r="K6">
+        <v>4.1835300000000002</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1906</v>
+      </c>
+      <c r="B7">
+        <v>6.1672450000000003</v>
+      </c>
+      <c r="D7">
+        <v>1906</v>
+      </c>
+      <c r="E7">
+        <v>5.05152</v>
+      </c>
+      <c r="G7">
+        <v>1906</v>
+      </c>
+      <c r="H7">
+        <v>5.3663100000000004</v>
+      </c>
+      <c r="J7">
+        <v>1456</v>
+      </c>
+      <c r="K7">
+        <v>4.2474819999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1907</v>
+      </c>
+      <c r="B8">
+        <v>6.3125349999999996</v>
+      </c>
+      <c r="D8">
+        <v>1907</v>
+      </c>
+      <c r="E8">
+        <v>5.1508669999999999</v>
+      </c>
+      <c r="G8">
+        <v>1907</v>
+      </c>
+      <c r="H8">
+        <v>5.47621</v>
+      </c>
+      <c r="J8">
+        <v>1457</v>
+      </c>
+      <c r="K8">
+        <v>4.312055</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1908</v>
+      </c>
+      <c r="B9">
+        <v>6.4689949999999996</v>
+      </c>
+      <c r="D9">
+        <v>1908</v>
+      </c>
+      <c r="E9">
+        <v>5.2564099999999998</v>
+      </c>
+      <c r="G9">
+        <v>1908</v>
+      </c>
+      <c r="H9">
+        <v>5.5885819999999997</v>
+      </c>
+      <c r="J9">
+        <v>1458</v>
+      </c>
+      <c r="K9">
+        <v>4.3747629999999997</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>1909</v>
+      </c>
+      <c r="B10">
+        <v>6.6291849999999997</v>
+      </c>
+      <c r="D10">
+        <v>1909</v>
+      </c>
+      <c r="E10">
+        <v>5.3625850000000002</v>
+      </c>
+      <c r="G10">
+        <v>1909</v>
+      </c>
+      <c r="H10">
+        <v>5.7102779999999997</v>
+      </c>
+      <c r="J10">
+        <v>1459</v>
+      </c>
+      <c r="K10">
+        <v>4.4424400000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>1910</v>
+      </c>
+      <c r="B11">
+        <v>6.7949599999999997</v>
+      </c>
+      <c r="D11">
+        <v>1910</v>
+      </c>
+      <c r="E11">
+        <v>5.4780699999999998</v>
+      </c>
+      <c r="G11">
+        <v>1910</v>
+      </c>
+      <c r="H11">
+        <v>5.8332100000000002</v>
+      </c>
+      <c r="J11">
+        <v>1460</v>
+      </c>
+      <c r="K11">
+        <v>4.5113599999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1911</v>
+      </c>
+      <c r="B12">
+        <v>6.9700499999999996</v>
+      </c>
+      <c r="D12">
+        <v>1911</v>
+      </c>
+      <c r="E12">
+        <v>5.5997620000000001</v>
+      </c>
+      <c r="G12">
+        <v>1911</v>
+      </c>
+      <c r="H12">
+        <v>5.9604900000000001</v>
+      </c>
+      <c r="J12">
+        <v>1461</v>
+      </c>
+      <c r="K12">
+        <v>4.58338</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1912</v>
+      </c>
+      <c r="B13">
+        <v>7.1563100000000004</v>
+      </c>
+      <c r="D13">
+        <v>1912</v>
+      </c>
+      <c r="E13">
+        <v>5.7208370000000004</v>
+      </c>
+      <c r="G13">
+        <v>1912</v>
+      </c>
+      <c r="H13">
+        <v>6.0983299999999998</v>
+      </c>
+      <c r="J13">
+        <v>1462</v>
+      </c>
+      <c r="K13">
+        <v>4.6529199999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1913</v>
+      </c>
+      <c r="B14">
+        <v>7.3574799999999998</v>
+      </c>
+      <c r="D14">
+        <v>1913</v>
+      </c>
+      <c r="E14">
+        <v>5.8487299999999998</v>
+      </c>
+      <c r="G14">
+        <v>1913</v>
+      </c>
+      <c r="H14">
+        <v>6.2361700000000004</v>
+      </c>
+      <c r="J14">
+        <v>1463</v>
+      </c>
+      <c r="K14">
+        <v>4.7317679999999998</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1914</v>
+      </c>
+      <c r="B15">
+        <v>7.5586399999999996</v>
+      </c>
+      <c r="D15">
+        <v>1914</v>
+      </c>
+      <c r="E15">
+        <v>5.98285</v>
+      </c>
+      <c r="G15">
+        <v>1914</v>
+      </c>
+      <c r="H15">
+        <v>6.3851779999999998</v>
+      </c>
+      <c r="J15">
+        <v>1464</v>
+      </c>
+      <c r="K15">
+        <v>4.8087580000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1915</v>
+      </c>
+      <c r="B16">
+        <v>7.7803250000000004</v>
+      </c>
+      <c r="D16">
+        <v>1915</v>
+      </c>
+      <c r="E16">
+        <v>6.1213030000000002</v>
+      </c>
+      <c r="G16">
+        <v>1915</v>
+      </c>
+      <c r="H16">
+        <v>6.5379100000000001</v>
+      </c>
+      <c r="J16">
+        <v>1465</v>
+      </c>
+      <c r="K16">
+        <v>4.8919579999999998</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1916</v>
+      </c>
+      <c r="B17">
+        <v>8.0057050000000007</v>
+      </c>
+      <c r="D17">
+        <v>1916</v>
+      </c>
+      <c r="E17">
+        <v>6.2696899999999998</v>
+      </c>
+      <c r="G17">
+        <v>1916</v>
+      </c>
+      <c r="H17">
+        <v>6.7024480000000004</v>
+      </c>
+      <c r="J17">
+        <v>1466</v>
+      </c>
+      <c r="K17">
+        <v>4.9732900000000004</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1917</v>
+      </c>
+      <c r="B18">
+        <v>8.2515800000000006</v>
+      </c>
+      <c r="D18">
+        <v>1917</v>
+      </c>
+      <c r="E18">
+        <v>6.4211869999999998</v>
+      </c>
+      <c r="G18">
+        <v>1917</v>
+      </c>
+      <c r="H18">
+        <v>6.870082</v>
+      </c>
+      <c r="J18">
+        <v>1467</v>
+      </c>
+      <c r="K18">
+        <v>5.0614569999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1918</v>
+      </c>
+      <c r="B19">
+        <v>8.5086200000000005</v>
+      </c>
+      <c r="D19">
+        <v>1918</v>
+      </c>
+      <c r="E19">
+        <v>6.5826200000000004</v>
+      </c>
+      <c r="G19">
+        <v>1918</v>
+      </c>
+      <c r="H19">
+        <v>7.0507600000000004</v>
+      </c>
+      <c r="J19">
+        <v>1468</v>
+      </c>
+      <c r="K19">
+        <v>5.1483819999999998</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1919</v>
+      </c>
+      <c r="B20">
+        <v>8.7861550000000008</v>
+      </c>
+      <c r="D20">
+        <v>1919</v>
+      </c>
+      <c r="E20">
+        <v>6.7465299999999999</v>
+      </c>
+      <c r="G20">
+        <v>1919</v>
+      </c>
+      <c r="H20">
+        <v>7.23827</v>
+      </c>
+      <c r="J20">
+        <v>1469</v>
+      </c>
+      <c r="K20">
+        <v>5.2452379999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1920</v>
+      </c>
+      <c r="B21">
+        <v>9.0804550000000006</v>
+      </c>
+      <c r="D21">
+        <v>1920</v>
+      </c>
+      <c r="E21">
+        <v>6.9253400000000003</v>
+      </c>
+      <c r="G21">
+        <v>1920</v>
+      </c>
+      <c r="H21">
+        <v>7.4350880000000004</v>
+      </c>
+      <c r="J21">
+        <v>1470</v>
+      </c>
+      <c r="K21">
+        <v>5.3389920000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1921</v>
+      </c>
+      <c r="B22">
+        <v>9.3840649999999997</v>
+      </c>
+      <c r="D22">
+        <v>1921</v>
+      </c>
+      <c r="E22">
+        <v>7.1122269999999999</v>
+      </c>
+      <c r="G22">
+        <v>1921</v>
+      </c>
+      <c r="H22">
+        <v>7.641248</v>
+      </c>
+      <c r="J22">
+        <v>1471</v>
+      </c>
+      <c r="K22">
+        <v>5.4364699999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1922</v>
+      </c>
+      <c r="B23">
+        <v>9.7212049999999994</v>
+      </c>
+      <c r="D23">
+        <v>1922</v>
+      </c>
+      <c r="E23">
+        <v>7.3078070000000004</v>
+      </c>
+      <c r="G23">
+        <v>1922</v>
+      </c>
+      <c r="H23">
+        <v>7.8579400000000001</v>
+      </c>
+      <c r="J23">
+        <v>1472</v>
+      </c>
+      <c r="K23">
+        <v>5.538297</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1923</v>
+      </c>
+      <c r="B24">
+        <v>10.075100000000001</v>
+      </c>
+      <c r="D24">
+        <v>1923</v>
+      </c>
+      <c r="E24">
+        <v>7.5114530000000004</v>
+      </c>
+      <c r="G24">
+        <v>1923</v>
+      </c>
+      <c r="H24">
+        <v>8.0901479999999992</v>
+      </c>
+      <c r="J24">
+        <v>1473</v>
+      </c>
+      <c r="K24">
+        <v>5.644463</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1924</v>
+      </c>
+      <c r="B25">
+        <v>10.456899999999999</v>
+      </c>
+      <c r="D25">
+        <v>1924</v>
+      </c>
+      <c r="E25">
+        <v>7.7275530000000003</v>
+      </c>
+      <c r="G25">
+        <v>1924</v>
+      </c>
+      <c r="H25">
+        <v>8.3291880000000003</v>
+      </c>
+      <c r="J25">
+        <v>1474</v>
+      </c>
+      <c r="K25">
+        <v>5.75312</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1925</v>
+      </c>
+      <c r="B26">
+        <v>10.864850000000001</v>
+      </c>
+      <c r="D26">
+        <v>1925</v>
+      </c>
+      <c r="E26">
+        <v>7.9591399999999997</v>
+      </c>
+      <c r="G26">
+        <v>1925</v>
+      </c>
+      <c r="H26">
+        <v>8.5905799999999992</v>
+      </c>
+      <c r="J26">
+        <v>1475</v>
+      </c>
+      <c r="K26">
+        <v>5.8654999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1926</v>
+      </c>
+      <c r="B27">
+        <v>11.31005</v>
+      </c>
+      <c r="D27">
+        <v>1926</v>
+      </c>
+      <c r="E27">
+        <v>8.2012850000000004</v>
+      </c>
+      <c r="G27">
+        <v>1926</v>
+      </c>
+      <c r="H27">
+        <v>8.8656279999999992</v>
+      </c>
+      <c r="J27">
+        <v>1476</v>
+      </c>
+      <c r="K27">
+        <v>5.9834699999999996</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1927</v>
+      </c>
+      <c r="B28">
+        <v>11.7906</v>
+      </c>
+      <c r="D28">
+        <v>1927</v>
+      </c>
+      <c r="E28">
+        <v>8.4577080000000002</v>
+      </c>
+      <c r="G28">
+        <v>1927</v>
+      </c>
+      <c r="H28">
+        <v>9.1518569999999997</v>
+      </c>
+      <c r="J28">
+        <v>1477</v>
+      </c>
+      <c r="K28">
+        <v>6.1076449999999998</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1928</v>
+      </c>
+      <c r="B29">
+        <v>12.308400000000001</v>
+      </c>
+      <c r="D29">
+        <v>1928</v>
+      </c>
+      <c r="E29">
+        <v>8.7333800000000004</v>
+      </c>
+      <c r="G29">
+        <v>1928</v>
+      </c>
+      <c r="H29">
+        <v>9.4623000000000008</v>
+      </c>
+      <c r="J29">
+        <v>1478</v>
+      </c>
+      <c r="K29">
+        <v>6.234305</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1929</v>
+      </c>
+      <c r="B30">
+        <v>12.870950000000001</v>
+      </c>
+      <c r="D30">
+        <v>1929</v>
+      </c>
+      <c r="E30">
+        <v>9.02271</v>
+      </c>
+      <c r="G30">
+        <v>1929</v>
+      </c>
+      <c r="H30">
+        <v>9.7839130000000001</v>
+      </c>
+      <c r="J30">
+        <v>1479</v>
+      </c>
+      <c r="K30">
+        <v>6.363442</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1930</v>
+      </c>
+      <c r="B31">
+        <v>13.487450000000001</v>
+      </c>
+      <c r="D31">
+        <v>1930</v>
+      </c>
+      <c r="E31">
+        <v>9.3319100000000006</v>
+      </c>
+      <c r="G31">
+        <v>1930</v>
+      </c>
+      <c r="H31">
+        <v>10.1372</v>
+      </c>
+      <c r="J31">
+        <v>1480</v>
+      </c>
+      <c r="K31">
+        <v>6.5043870000000004</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1931</v>
+      </c>
+      <c r="B32">
+        <v>14.154299999999999</v>
+      </c>
+      <c r="D32">
+        <v>1931</v>
+      </c>
+      <c r="E32">
+        <v>9.6634620000000009</v>
+      </c>
+      <c r="G32">
+        <v>1931</v>
+      </c>
+      <c r="H32">
+        <v>10.5166</v>
+      </c>
+      <c r="J32">
+        <v>1481</v>
+      </c>
+      <c r="K32">
+        <v>6.6496700000000004</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1932</v>
+      </c>
+      <c r="B33">
+        <v>14.89565</v>
+      </c>
+      <c r="D33">
+        <v>1932</v>
+      </c>
+      <c r="E33">
+        <v>10.0174</v>
+      </c>
+      <c r="G33">
+        <v>1932</v>
+      </c>
+      <c r="H33">
+        <v>10.919517000000001</v>
+      </c>
+      <c r="J33">
+        <v>1482</v>
+      </c>
+      <c r="K33">
+        <v>6.8011670000000004</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1933</v>
+      </c>
+      <c r="B34">
+        <v>15.7059</v>
+      </c>
+      <c r="D34">
+        <v>1933</v>
+      </c>
+      <c r="E34">
+        <v>10.396682999999999</v>
+      </c>
+      <c r="G34">
+        <v>1933</v>
+      </c>
+      <c r="H34">
+        <v>11.349767</v>
+      </c>
+      <c r="J34">
+        <v>1483</v>
+      </c>
+      <c r="K34">
+        <v>6.95763</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1934</v>
+      </c>
+      <c r="B35">
+        <v>16.6112</v>
+      </c>
+      <c r="D35">
+        <v>1934</v>
+      </c>
+      <c r="E35">
+        <v>10.804017</v>
+      </c>
+      <c r="G35">
+        <v>1934</v>
+      </c>
+      <c r="H35">
+        <v>11.819167</v>
+      </c>
+      <c r="J35">
+        <v>1484</v>
+      </c>
+      <c r="K35">
+        <v>7.1227799999999997</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1935</v>
+      </c>
+      <c r="B36">
+        <v>17.618849999999998</v>
+      </c>
+      <c r="D36">
+        <v>1935</v>
+      </c>
+      <c r="E36">
+        <v>11.243617</v>
+      </c>
+      <c r="G36">
+        <v>1935</v>
+      </c>
+      <c r="H36">
+        <v>12.327</v>
+      </c>
+      <c r="J36">
+        <v>1485</v>
+      </c>
+      <c r="K36">
+        <v>7.2922849999999997</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1936</v>
+      </c>
+      <c r="B37">
+        <v>18.738350000000001</v>
+      </c>
+      <c r="D37">
+        <v>1936</v>
+      </c>
+      <c r="E37">
+        <v>11.71795</v>
+      </c>
+      <c r="G37">
+        <v>1936</v>
+      </c>
+      <c r="H37">
+        <v>12.878399999999999</v>
+      </c>
+      <c r="J37">
+        <v>1486</v>
+      </c>
+      <c r="K37">
+        <v>7.4742030000000002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1937</v>
+      </c>
+      <c r="B38">
+        <v>19.997499999999999</v>
+      </c>
+      <c r="D38">
+        <v>1937</v>
+      </c>
+      <c r="E38">
+        <v>12.233283</v>
+      </c>
+      <c r="G38">
+        <v>1937</v>
+      </c>
+      <c r="H38">
+        <v>13.478149999999999</v>
+      </c>
+      <c r="J38">
+        <v>1487</v>
+      </c>
+      <c r="K38">
+        <v>7.6629800000000001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1938</v>
+      </c>
+      <c r="B39">
+        <v>21.424299999999999</v>
+      </c>
+      <c r="D39">
+        <v>1938</v>
+      </c>
+      <c r="E39">
+        <v>12.793933000000001</v>
+      </c>
+      <c r="G39">
+        <v>1938</v>
+      </c>
+      <c r="H39">
+        <v>14.134416999999999</v>
+      </c>
+      <c r="J39">
+        <v>1488</v>
+      </c>
+      <c r="K39">
+        <v>7.8579400000000001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>1939</v>
+      </c>
+      <c r="B40">
+        <v>23.044750000000001</v>
+      </c>
+      <c r="D40">
+        <v>1939</v>
+      </c>
+      <c r="E40">
+        <v>13.403682999999999</v>
+      </c>
+      <c r="G40">
+        <v>1939</v>
+      </c>
+      <c r="H40">
+        <v>14.854649999999999</v>
+      </c>
+      <c r="J40">
+        <v>1489</v>
+      </c>
+      <c r="K40">
+        <v>8.0696600000000007</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1940</v>
+      </c>
+      <c r="B41">
+        <v>24.8888</v>
+      </c>
+      <c r="D41">
+        <v>1940</v>
+      </c>
+      <c r="E41">
+        <v>14.071116999999999</v>
+      </c>
+      <c r="G41">
+        <v>1940</v>
+      </c>
+      <c r="H41">
+        <v>15.648217000000001</v>
+      </c>
+      <c r="J41">
+        <v>1490</v>
+      </c>
+      <c r="K41">
+        <v>8.2888300000000008</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>1941</v>
+      </c>
+      <c r="B42">
+        <v>27.002849999999999</v>
+      </c>
+      <c r="D42">
+        <v>1941</v>
+      </c>
+      <c r="E42">
+        <v>14.804399999999999</v>
+      </c>
+      <c r="G42">
+        <v>1941</v>
+      </c>
+      <c r="H42">
+        <v>16.526116999999999</v>
+      </c>
+      <c r="J42">
+        <v>1491</v>
+      </c>
+      <c r="K42">
+        <v>8.5210399999999993</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>1942</v>
+      </c>
+      <c r="B43">
+        <v>29.4299</v>
+      </c>
+      <c r="D43">
+        <v>1942</v>
+      </c>
+      <c r="E43">
+        <v>15.6091</v>
+      </c>
+      <c r="G43">
+        <v>1942</v>
+      </c>
+      <c r="H43">
+        <v>17.500299999999999</v>
+      </c>
+      <c r="J43">
+        <v>1492</v>
+      </c>
+      <c r="K43">
+        <v>8.7619399999999992</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>1943</v>
+      </c>
+      <c r="B44">
+        <v>32.214649999999999</v>
+      </c>
+      <c r="D44">
+        <v>1943</v>
+      </c>
+      <c r="E44">
+        <v>16.5032</v>
+      </c>
+      <c r="G44">
+        <v>1943</v>
+      </c>
+      <c r="H44">
+        <v>18.58745</v>
+      </c>
+      <c r="J44">
+        <v>1493</v>
+      </c>
+      <c r="K44">
+        <v>9.02271</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1944</v>
+      </c>
+      <c r="B45">
+        <v>35.401699999999998</v>
+      </c>
+      <c r="D45">
+        <v>1944</v>
+      </c>
+      <c r="E45">
+        <v>17.498417</v>
+      </c>
+      <c r="G45">
+        <v>1944</v>
+      </c>
+      <c r="H45">
+        <v>19.808116999999999</v>
+      </c>
+      <c r="J45">
+        <v>1494</v>
+      </c>
+      <c r="K45">
+        <v>9.2878299999999996</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>1945</v>
+      </c>
+      <c r="B46">
+        <v>39.003999999999998</v>
+      </c>
+      <c r="D46">
+        <v>1945</v>
+      </c>
+      <c r="E46">
+        <v>18.6098</v>
+      </c>
+      <c r="G46">
+        <v>1945</v>
+      </c>
+      <c r="H46">
+        <v>21.179632999999999</v>
+      </c>
+      <c r="J46">
+        <v>1495</v>
+      </c>
+      <c r="K46">
+        <v>9.5771580000000007</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>1946</v>
+      </c>
+      <c r="B47">
+        <v>42.939799999999998</v>
+      </c>
+      <c r="D47">
+        <v>1946</v>
+      </c>
+      <c r="E47">
+        <v>19.854666999999999</v>
+      </c>
+      <c r="G47">
+        <v>1946</v>
+      </c>
+      <c r="H47">
+        <v>22.735600000000002</v>
+      </c>
+      <c r="J47">
+        <v>1496</v>
+      </c>
+      <c r="K47">
+        <v>9.8844930000000009</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>1947</v>
+      </c>
+      <c r="B48">
+        <v>47.020850000000003</v>
+      </c>
+      <c r="D48">
+        <v>1947</v>
+      </c>
+      <c r="E48">
+        <v>21.259699999999999</v>
+      </c>
+      <c r="G48">
+        <v>1947</v>
+      </c>
+      <c r="H48">
+        <v>24.508800000000001</v>
+      </c>
+      <c r="J48">
+        <v>1497</v>
+      </c>
+      <c r="K48">
+        <v>10.208017</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1948</v>
+      </c>
+      <c r="B49">
+        <v>50.820599999999999</v>
+      </c>
+      <c r="D49">
+        <v>1948</v>
+      </c>
+      <c r="E49">
+        <v>22.852882999999999</v>
+      </c>
+      <c r="G49">
+        <v>1948</v>
+      </c>
+      <c r="H49">
+        <v>26.540949999999999</v>
+      </c>
+      <c r="J49">
+        <v>1498</v>
+      </c>
+      <c r="K49">
+        <v>10.555033</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>1949</v>
+      </c>
+      <c r="B50">
+        <v>53.689100000000003</v>
+      </c>
+      <c r="D50">
+        <v>1949</v>
+      </c>
+      <c r="E50">
+        <v>24.664650000000002</v>
+      </c>
+      <c r="G50">
+        <v>1949</v>
+      </c>
+      <c r="H50">
+        <v>28.877967000000002</v>
+      </c>
+      <c r="J50">
+        <v>1499</v>
+      </c>
+      <c r="K50">
+        <v>10.921367</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>1950</v>
+      </c>
+      <c r="B51">
+        <v>54.9557</v>
+      </c>
+      <c r="D51">
+        <v>1950</v>
+      </c>
+      <c r="E51">
+        <v>26.729717000000001</v>
+      </c>
+      <c r="G51">
+        <v>1950</v>
+      </c>
+      <c r="H51">
+        <v>31.578900000000001</v>
+      </c>
+      <c r="J51">
+        <v>1500</v>
+      </c>
+      <c r="K51">
+        <v>11.315033</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>1951</v>
+      </c>
+      <c r="B52">
+        <v>54.253500000000003</v>
+      </c>
+      <c r="D52">
+        <v>1951</v>
+      </c>
+      <c r="E52">
+        <v>29.1021</v>
+      </c>
+      <c r="G52">
+        <v>1951</v>
+      </c>
+      <c r="H52">
+        <v>34.684567000000001</v>
+      </c>
+      <c r="J52">
+        <v>1501</v>
+      </c>
+      <c r="K52">
+        <v>11.736549999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1952</v>
+      </c>
+      <c r="B53">
+        <v>51.798549999999999</v>
+      </c>
+      <c r="D53">
+        <v>1952</v>
+      </c>
+      <c r="E53">
+        <v>31.805533</v>
+      </c>
+      <c r="G53">
+        <v>1952</v>
+      </c>
+      <c r="H53">
+        <v>38.245916999999999</v>
+      </c>
+      <c r="J53">
+        <v>1502</v>
+      </c>
+      <c r="K53">
+        <v>12.189817</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>1953</v>
+      </c>
+      <c r="B54">
+        <v>48.229700000000001</v>
+      </c>
+      <c r="D54">
+        <v>1953</v>
+      </c>
+      <c r="E54">
+        <v>34.881999999999998</v>
+      </c>
+      <c r="G54">
+        <v>1953</v>
+      </c>
+      <c r="H54">
+        <v>42.244399999999999</v>
+      </c>
+      <c r="J54">
+        <v>1503</v>
+      </c>
+      <c r="K54">
+        <v>12.6828</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>1954</v>
+      </c>
+      <c r="B55">
+        <v>44.23245</v>
+      </c>
+      <c r="D55">
+        <v>1954</v>
+      </c>
+      <c r="E55">
+        <v>38.316066999999997</v>
+      </c>
+      <c r="G55">
+        <v>1954</v>
+      </c>
+      <c r="H55">
+        <v>46.576317000000003</v>
+      </c>
+      <c r="J55">
+        <v>1504</v>
+      </c>
+      <c r="K55">
+        <v>13.2118</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>1955</v>
+      </c>
+      <c r="B56">
+        <v>40.292949999999998</v>
+      </c>
+      <c r="D56">
+        <v>1955</v>
+      </c>
+      <c r="E56">
+        <v>42.037633</v>
+      </c>
+      <c r="G56">
+        <v>1955</v>
+      </c>
+      <c r="H56">
+        <v>50.942332999999998</v>
+      </c>
+      <c r="J56">
+        <v>1505</v>
+      </c>
+      <c r="K56">
+        <v>13.786133</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>1956</v>
+      </c>
+      <c r="B57">
+        <v>36.645899999999997</v>
+      </c>
+      <c r="D57">
+        <v>1956</v>
+      </c>
+      <c r="E57">
+        <v>45.823149999999998</v>
+      </c>
+      <c r="G57">
+        <v>1956</v>
+      </c>
+      <c r="H57">
+        <v>54.757632999999998</v>
+      </c>
+      <c r="J57">
+        <v>1506</v>
+      </c>
+      <c r="K57">
+        <v>14.4095</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>1957</v>
+      </c>
+      <c r="B58">
+        <v>33.388150000000003</v>
+      </c>
+      <c r="D58">
+        <v>1957</v>
+      </c>
+      <c r="E58">
+        <v>49.276499999999999</v>
+      </c>
+      <c r="G58">
+        <v>1957</v>
+      </c>
+      <c r="H58">
+        <v>57.246766999999998</v>
+      </c>
+      <c r="J58">
+        <v>1507</v>
+      </c>
+      <c r="K58">
+        <v>15.098682999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>1958</v>
+      </c>
+      <c r="B59">
+        <v>30.527149999999999</v>
+      </c>
+      <c r="D59">
+        <v>1958</v>
+      </c>
+      <c r="E59">
+        <v>51.803483</v>
+      </c>
+      <c r="G59">
+        <v>1958</v>
+      </c>
+      <c r="H59">
+        <v>57.716166999999999</v>
+      </c>
+      <c r="J59">
+        <v>1508</v>
+      </c>
+      <c r="K59">
+        <v>15.846266999999999</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>1959</v>
+      </c>
+      <c r="B60">
+        <v>28.036650000000002</v>
+      </c>
+      <c r="D60">
+        <v>1959</v>
+      </c>
+      <c r="E60">
+        <v>52.818016999999998</v>
+      </c>
+      <c r="G60">
+        <v>1959</v>
+      </c>
+      <c r="H60">
+        <v>56.033549999999998</v>
+      </c>
+      <c r="J60">
+        <v>1509</v>
+      </c>
+      <c r="K60">
+        <v>16.670183000000002</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>1960</v>
+      </c>
+      <c r="B61">
+        <v>25.872299999999999</v>
+      </c>
+      <c r="D61">
+        <v>1960</v>
+      </c>
+      <c r="E61">
+        <v>52.040649999999999</v>
+      </c>
+      <c r="G61">
+        <v>1960</v>
+      </c>
+      <c r="H61">
+        <v>52.706249999999997</v>
+      </c>
+      <c r="J61">
+        <v>1510</v>
+      </c>
+      <c r="K61">
+        <v>17.579799999999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>1961</v>
+      </c>
+      <c r="B62">
+        <v>23.974250000000001</v>
+      </c>
+      <c r="D62">
+        <v>1961</v>
+      </c>
+      <c r="E62">
+        <v>49.706183000000003</v>
+      </c>
+      <c r="G62">
+        <v>1961</v>
+      </c>
+      <c r="H62">
+        <v>48.548833000000002</v>
+      </c>
+      <c r="J62">
+        <v>1511</v>
+      </c>
+      <c r="K62">
+        <v>18.6005</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>1962</v>
+      </c>
+      <c r="B63">
+        <v>22.318300000000001</v>
+      </c>
+      <c r="D63">
+        <v>1962</v>
+      </c>
+      <c r="E63">
+        <v>46.379483</v>
+      </c>
+      <c r="G63">
+        <v>1962</v>
+      </c>
+      <c r="H63">
+        <v>44.212000000000003</v>
+      </c>
+      <c r="J63">
+        <v>1512</v>
+      </c>
+      <c r="K63">
+        <v>19.726766999999999</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>1963</v>
+      </c>
+      <c r="B64">
+        <v>20.859850000000002</v>
+      </c>
+      <c r="D64">
+        <v>1963</v>
+      </c>
+      <c r="E64">
+        <v>42.656033000000001</v>
+      </c>
+      <c r="G64">
+        <v>1963</v>
+      </c>
+      <c r="H64">
+        <v>40.109833000000002</v>
+      </c>
+      <c r="J64">
+        <v>1513</v>
+      </c>
+      <c r="K64">
+        <v>21.001449999999998</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>1964</v>
+      </c>
+      <c r="B65">
+        <v>19.5672</v>
+      </c>
+      <c r="D65">
+        <v>1964</v>
+      </c>
+      <c r="E65">
+        <v>38.973582999999998</v>
+      </c>
+      <c r="G65">
+        <v>1964</v>
+      </c>
+      <c r="H65">
+        <v>36.41245</v>
+      </c>
+      <c r="J65">
+        <v>1514</v>
+      </c>
+      <c r="K65">
+        <v>22.448083</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>1965</v>
+      </c>
+      <c r="B66">
+        <v>18.421700000000001</v>
+      </c>
+      <c r="D66">
+        <v>1965</v>
+      </c>
+      <c r="E66">
+        <v>35.541967</v>
+      </c>
+      <c r="G66">
+        <v>1965</v>
+      </c>
+      <c r="H66">
+        <v>33.161499999999997</v>
+      </c>
+      <c r="J66">
+        <v>1515</v>
+      </c>
+      <c r="K66">
+        <v>24.096533000000001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>1966</v>
+      </c>
+      <c r="B67">
+        <v>17.391649999999998</v>
+      </c>
+      <c r="D67">
+        <v>1966</v>
+      </c>
+      <c r="E67">
+        <v>32.466132999999999</v>
+      </c>
+      <c r="G67">
+        <v>1966</v>
+      </c>
+      <c r="H67">
+        <v>30.33455</v>
+      </c>
+      <c r="J67">
+        <v>1516</v>
+      </c>
+      <c r="K67">
+        <v>25.997050000000002</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>1967</v>
+      </c>
+      <c r="B68">
+        <v>16.471499999999999</v>
+      </c>
+      <c r="D68">
+        <v>1967</v>
+      </c>
+      <c r="E68">
+        <v>29.748449999999998</v>
+      </c>
+      <c r="G68">
+        <v>1967</v>
+      </c>
+      <c r="H68">
+        <v>27.883900000000001</v>
+      </c>
+      <c r="J68">
+        <v>1517</v>
+      </c>
+      <c r="K68">
+        <v>28.191866999999998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>1968</v>
+      </c>
+      <c r="B69">
+        <v>15.6426</v>
+      </c>
+      <c r="D69">
+        <v>1968</v>
+      </c>
+      <c r="E69">
+        <v>27.369800000000001</v>
+      </c>
+      <c r="G69">
+        <v>1968</v>
+      </c>
+      <c r="H69">
+        <v>25.746832999999999</v>
+      </c>
+      <c r="J69">
+        <v>1518</v>
+      </c>
+      <c r="K69">
+        <v>30.7898</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>1969</v>
+      </c>
+      <c r="B70">
+        <v>14.88815</v>
+      </c>
+      <c r="D70">
+        <v>1969</v>
+      </c>
+      <c r="E70">
+        <v>25.292950000000001</v>
+      </c>
+      <c r="G70">
+        <v>1969</v>
+      </c>
+      <c r="H70">
+        <v>23.887933</v>
+      </c>
+      <c r="J70">
+        <v>1519</v>
+      </c>
+      <c r="K70">
+        <v>33.874299999999998</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>1970</v>
+      </c>
+      <c r="B71">
+        <v>14.204599999999999</v>
+      </c>
+      <c r="D71">
+        <v>1970</v>
+      </c>
+      <c r="E71">
+        <v>23.469417</v>
+      </c>
+      <c r="G71">
+        <v>1970</v>
+      </c>
+      <c r="H71">
+        <v>22.2606</v>
+      </c>
+      <c r="J71">
+        <v>1520</v>
+      </c>
+      <c r="K71">
+        <v>37.5884</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>1971</v>
+      </c>
+      <c r="B72">
+        <v>13.5787</v>
+      </c>
+      <c r="D72">
+        <v>1971</v>
+      </c>
+      <c r="E72">
+        <v>21.872533000000001</v>
+      </c>
+      <c r="G72">
+        <v>1971</v>
+      </c>
+      <c r="H72">
+        <v>20.827583000000001</v>
+      </c>
+      <c r="J72">
+        <v>1521</v>
+      </c>
+      <c r="K72">
+        <v>42.111533000000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>1972</v>
+      </c>
+      <c r="B73">
+        <v>13.001300000000001</v>
+      </c>
+      <c r="D73">
+        <v>1972</v>
+      </c>
+      <c r="E73">
+        <v>20.4557</v>
+      </c>
+      <c r="G73">
+        <v>1972</v>
+      </c>
+      <c r="H73">
+        <v>19.556667000000001</v>
+      </c>
+      <c r="J73">
+        <v>1522</v>
+      </c>
+      <c r="K73">
+        <v>47.722433000000002</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>1973</v>
+      </c>
+      <c r="B74">
+        <v>12.472300000000001</v>
+      </c>
+      <c r="D74">
+        <v>1973</v>
+      </c>
+      <c r="E74">
+        <v>19.203382999999999</v>
+      </c>
+      <c r="G74">
+        <v>1973</v>
+      </c>
+      <c r="H74">
+        <v>18.427866999999999</v>
+      </c>
+      <c r="J74">
+        <v>1523</v>
+      </c>
+      <c r="K74">
+        <v>54.759517000000002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>1974</v>
+      </c>
+      <c r="B75">
+        <v>11.98615</v>
+      </c>
+      <c r="D75">
+        <v>1974</v>
+      </c>
+      <c r="E75">
+        <v>18.089483000000001</v>
+      </c>
+      <c r="G75">
+        <v>1974</v>
+      </c>
+      <c r="H75">
+        <v>17.415800000000001</v>
+      </c>
+      <c r="J75">
+        <v>1524</v>
+      </c>
+      <c r="K75">
+        <v>63.653883</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>1975</v>
+      </c>
+      <c r="B76">
+        <v>11.5373</v>
+      </c>
+      <c r="D76">
+        <v>1975</v>
+      </c>
+      <c r="E76">
+        <v>17.093599999999999</v>
+      </c>
+      <c r="G76">
+        <v>1975</v>
+      </c>
+      <c r="H76">
+        <v>16.506283</v>
+      </c>
+      <c r="J76">
+        <v>1525</v>
+      </c>
+      <c r="K76">
+        <v>74.785633000000004</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>1976</v>
+      </c>
+      <c r="B77">
+        <v>11.12</v>
+      </c>
+      <c r="D77">
+        <v>1976</v>
+      </c>
+      <c r="E77">
+        <v>16.193332999999999</v>
+      </c>
+      <c r="G77">
+        <v>1976</v>
+      </c>
+      <c r="H77">
+        <v>15.686067</v>
+      </c>
+      <c r="J77">
+        <v>1526</v>
+      </c>
+      <c r="K77">
+        <v>87.9024</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>1977</v>
+      </c>
+      <c r="B78">
+        <v>10.7326</v>
+      </c>
+      <c r="D78">
+        <v>1977</v>
+      </c>
+      <c r="E78">
+        <v>15.383067</v>
+      </c>
+      <c r="G78">
+        <v>1977</v>
+      </c>
+      <c r="H78">
+        <v>14.944050000000001</v>
+      </c>
+      <c r="J78">
+        <v>1527</v>
+      </c>
+      <c r="K78">
+        <v>100.682667</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>1978</v>
+      </c>
+      <c r="B79">
+        <v>10.373150000000001</v>
+      </c>
+      <c r="D79">
+        <v>1978</v>
+      </c>
+      <c r="E79">
+        <v>14.646050000000001</v>
+      </c>
+      <c r="G79">
+        <v>1978</v>
+      </c>
+      <c r="H79">
+        <v>14.264817000000001</v>
+      </c>
+      <c r="J79">
+        <v>1528</v>
+      </c>
+      <c r="K79">
+        <v>107.622333</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>1979</v>
+      </c>
+      <c r="B80">
+        <v>10.0397</v>
+      </c>
+      <c r="D80">
+        <v>1979</v>
+      </c>
+      <c r="E80">
+        <v>13.97545</v>
+      </c>
+      <c r="G80">
+        <v>1979</v>
+      </c>
+      <c r="H80">
+        <v>13.645182999999999</v>
+      </c>
+      <c r="J80">
+        <v>1529</v>
+      </c>
+      <c r="K80">
+        <v>104.049333</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>1980</v>
+      </c>
+      <c r="B81">
+        <v>9.7193400000000008</v>
+      </c>
+      <c r="D81">
+        <v>1980</v>
+      </c>
+      <c r="E81">
+        <v>13.3627</v>
+      </c>
+      <c r="G81">
+        <v>1980</v>
+      </c>
+      <c r="H81">
+        <v>13.076433</v>
+      </c>
+      <c r="J81">
+        <v>1530</v>
+      </c>
+      <c r="K81">
+        <v>92.608699999999999</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>1981</v>
+      </c>
+      <c r="B82">
+        <v>9.4213199999999997</v>
+      </c>
+      <c r="D82">
+        <v>1981</v>
+      </c>
+      <c r="E82">
+        <v>12.803900000000001</v>
+      </c>
+      <c r="G82">
+        <v>1981</v>
+      </c>
+      <c r="H82">
+        <v>12.554917</v>
+      </c>
+      <c r="J82">
+        <v>1531</v>
+      </c>
+      <c r="K82">
+        <v>79.339200000000005</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>1982</v>
+      </c>
+      <c r="B83">
+        <v>9.145645</v>
+      </c>
+      <c r="D83">
+        <v>1982</v>
+      </c>
+      <c r="E83">
+        <v>12.287333</v>
+      </c>
+      <c r="G83">
+        <v>1982</v>
+      </c>
+      <c r="H83">
+        <v>12.073700000000001</v>
+      </c>
+      <c r="J83">
+        <v>1532</v>
+      </c>
+      <c r="K83">
+        <v>67.556117</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>1983</v>
+      </c>
+      <c r="B84">
+        <v>8.8830150000000003</v>
+      </c>
+      <c r="D84">
+        <v>1983</v>
+      </c>
+      <c r="E84">
+        <v>11.809200000000001</v>
+      </c>
+      <c r="G84">
+        <v>1983</v>
+      </c>
+      <c r="H84">
+        <v>11.6267</v>
+      </c>
+      <c r="J84">
+        <v>1533</v>
+      </c>
+      <c r="K84">
+        <v>58.008583000000002</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>1984</v>
+      </c>
+      <c r="B85">
+        <v>8.6334199999999992</v>
+      </c>
+      <c r="D85">
+        <v>1984</v>
+      </c>
+      <c r="E85">
+        <v>11.3659</v>
+      </c>
+      <c r="G85">
+        <v>1984</v>
+      </c>
+      <c r="H85">
+        <v>11.212583</v>
+      </c>
+      <c r="J85">
+        <v>1534</v>
+      </c>
+      <c r="K85">
+        <v>50.448717000000002</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>1985</v>
+      </c>
+      <c r="B86">
+        <v>8.3968600000000002</v>
+      </c>
+      <c r="D86">
+        <v>1985</v>
+      </c>
+      <c r="E86">
+        <v>10.959899999999999</v>
+      </c>
+      <c r="G86">
+        <v>1985</v>
+      </c>
+      <c r="H86">
+        <v>10.833817</v>
+      </c>
+      <c r="J86">
+        <v>1535</v>
+      </c>
+      <c r="K86">
+        <v>44.448549999999997</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>1986</v>
+      </c>
+      <c r="B87">
+        <v>8.1845199999999991</v>
+      </c>
+      <c r="D87">
+        <v>1986</v>
+      </c>
+      <c r="E87">
+        <v>10.5762</v>
+      </c>
+      <c r="G87">
+        <v>1986</v>
+      </c>
+      <c r="H87">
+        <v>10.477449999999999</v>
+      </c>
+      <c r="J87">
+        <v>1536</v>
+      </c>
+      <c r="K87">
+        <v>39.620550000000001</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>1987</v>
+      </c>
+      <c r="B88">
+        <v>7.9703150000000003</v>
+      </c>
+      <c r="D88">
+        <v>1987</v>
+      </c>
+      <c r="E88">
+        <v>10.222917000000001</v>
+      </c>
+      <c r="G88">
+        <v>1987</v>
+      </c>
+      <c r="H88">
+        <v>10.137217</v>
+      </c>
+      <c r="J88">
+        <v>1537</v>
+      </c>
+      <c r="K88">
+        <v>35.687882999999999</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>1988</v>
+      </c>
+      <c r="B89">
+        <v>7.7747400000000004</v>
+      </c>
+      <c r="D89">
+        <v>1988</v>
+      </c>
+      <c r="E89">
+        <v>9.8919429999999995</v>
+      </c>
+      <c r="G89">
+        <v>1988</v>
+      </c>
+      <c r="H89">
+        <v>9.8224070000000001</v>
+      </c>
+      <c r="J89">
+        <v>1538</v>
+      </c>
+      <c r="K89">
+        <v>32.425199999999997</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>1989</v>
+      </c>
+      <c r="B90">
+        <v>7.5809899999999999</v>
+      </c>
+      <c r="D90">
+        <v>1989</v>
+      </c>
+      <c r="E90">
+        <v>9.5808800000000005</v>
+      </c>
+      <c r="G90">
+        <v>1989</v>
+      </c>
+      <c r="H90">
+        <v>9.5293500000000009</v>
+      </c>
+      <c r="J90">
+        <v>1539</v>
+      </c>
+      <c r="K90">
+        <v>29.700633</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>1990</v>
+      </c>
+      <c r="B91">
+        <v>7.404045</v>
+      </c>
+      <c r="D91">
+        <v>1990</v>
+      </c>
+      <c r="E91">
+        <v>9.2890700000000006</v>
+      </c>
+      <c r="G91">
+        <v>1990</v>
+      </c>
+      <c r="H91">
+        <v>9.250572</v>
+      </c>
+      <c r="J91">
+        <v>1540</v>
+      </c>
+      <c r="K91">
+        <v>27.3841</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>1991</v>
+      </c>
+      <c r="B92">
+        <v>7.23454</v>
+      </c>
+      <c r="D92">
+        <v>1991</v>
+      </c>
+      <c r="E92">
+        <v>9.0165030000000002</v>
+      </c>
+      <c r="G92">
+        <v>1991</v>
+      </c>
+      <c r="H92">
+        <v>8.9910449999999997</v>
+      </c>
+      <c r="J92">
+        <v>1541</v>
+      </c>
+      <c r="K92">
+        <v>25.399100000000001</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>1992</v>
+      </c>
+      <c r="B93">
+        <v>7.0706300000000004</v>
+      </c>
+      <c r="D93">
+        <v>1992</v>
+      </c>
+      <c r="E93">
+        <v>8.7557329999999993</v>
+      </c>
+      <c r="G93">
+        <v>1992</v>
+      </c>
+      <c r="H93">
+        <v>8.7395899999999997</v>
+      </c>
+      <c r="J93">
+        <v>1542</v>
+      </c>
+      <c r="K93">
+        <v>23.684266999999998</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>1993</v>
+      </c>
+      <c r="B94">
+        <v>6.9160300000000001</v>
+      </c>
+      <c r="D94">
+        <v>1993</v>
+      </c>
+      <c r="E94">
+        <v>8.5135900000000007</v>
+      </c>
+      <c r="G94">
+        <v>1993</v>
+      </c>
+      <c r="H94">
+        <v>8.5123499999999996</v>
+      </c>
+      <c r="J94">
+        <v>1543</v>
+      </c>
+      <c r="K94">
+        <v>22.181733000000001</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>1994</v>
+      </c>
+      <c r="B95">
+        <v>6.765155</v>
+      </c>
+      <c r="D95">
+        <v>1994</v>
+      </c>
+      <c r="E95">
+        <v>8.2850999999999999</v>
+      </c>
+      <c r="G95">
+        <v>1994</v>
+      </c>
+      <c r="H95">
+        <v>8.2888300000000008</v>
+      </c>
+      <c r="J95">
+        <v>1544</v>
+      </c>
+      <c r="K95">
+        <v>20.863600000000002</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>1995</v>
+      </c>
+      <c r="B96">
+        <v>6.6198699999999997</v>
+      </c>
+      <c r="D96">
+        <v>1995</v>
+      </c>
+      <c r="E96">
+        <v>8.0665530000000008</v>
+      </c>
+      <c r="G96">
+        <v>1995</v>
+      </c>
+      <c r="H96">
+        <v>8.0764849999999999</v>
+      </c>
+      <c r="J96">
+        <v>1545</v>
+      </c>
+      <c r="K96">
+        <v>19.688300000000002</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>1996</v>
+      </c>
+      <c r="B97">
+        <v>6.4894800000000004</v>
+      </c>
+      <c r="D97">
+        <v>1996</v>
+      </c>
+      <c r="E97">
+        <v>7.8597999999999999</v>
+      </c>
+      <c r="G97">
+        <v>1996</v>
+      </c>
+      <c r="H97">
+        <v>7.8778069999999998</v>
+      </c>
+      <c r="J97">
+        <v>1546</v>
+      </c>
+      <c r="K97">
+        <v>18.636467</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>1997</v>
+      </c>
+      <c r="B98">
+        <v>6.3609600000000004</v>
+      </c>
+      <c r="D98">
+        <v>1997</v>
+      </c>
+      <c r="E98">
+        <v>7.6629800000000001</v>
+      </c>
+      <c r="G98">
+        <v>1997</v>
+      </c>
+      <c r="H98">
+        <v>7.6890599999999996</v>
+      </c>
+      <c r="J98">
+        <v>1547</v>
+      </c>
+      <c r="K98">
+        <v>17.690882999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>1998</v>
+      </c>
+      <c r="B99">
+        <v>6.2324400000000004</v>
+      </c>
+      <c r="D99">
+        <v>1998</v>
+      </c>
+      <c r="E99">
+        <v>7.4748250000000001</v>
+      </c>
+      <c r="G99">
+        <v>1998</v>
+      </c>
+      <c r="H99">
+        <v>7.5071099999999999</v>
+      </c>
+      <c r="J99">
+        <v>1548</v>
+      </c>
+      <c r="K99">
+        <v>16.838417</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>1999</v>
+      </c>
+      <c r="B100">
+        <v>6.1188200000000004</v>
+      </c>
+      <c r="D100">
+        <v>1999</v>
+      </c>
+      <c r="E100">
+        <v>7.3022169999999997</v>
+      </c>
+      <c r="G100">
+        <v>1999</v>
+      </c>
+      <c r="H100">
+        <v>7.3394719999999998</v>
+      </c>
+      <c r="J100">
+        <v>1549</v>
+      </c>
+      <c r="K100">
+        <v>16.066683000000001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>2000</v>
+      </c>
+      <c r="B101">
+        <v>6.0014700000000003</v>
+      </c>
+      <c r="D101">
+        <v>2000</v>
+      </c>
+      <c r="E101">
+        <v>7.1339600000000001</v>
+      </c>
+      <c r="G101">
+        <v>2000</v>
+      </c>
+      <c r="H101">
+        <v>7.1755599999999999</v>
+      </c>
+      <c r="J101">
+        <v>1550</v>
+      </c>
+      <c r="K101">
+        <v>15.362583000000001</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>2001</v>
+      </c>
+      <c r="B102">
+        <v>5.8859899999999996</v>
+      </c>
+      <c r="D102">
+        <v>2001</v>
+      </c>
+      <c r="E102">
+        <v>6.9762570000000004</v>
+      </c>
+      <c r="G102">
+        <v>2001</v>
+      </c>
+      <c r="H102">
+        <v>7.0215800000000002</v>
+      </c>
+      <c r="J102">
+        <v>1551</v>
+      </c>
+      <c r="K102">
+        <v>14.719932999999999</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>2002</v>
+      </c>
+      <c r="B103">
+        <v>5.7798150000000001</v>
+      </c>
+      <c r="D103">
+        <v>2002</v>
+      </c>
+      <c r="E103">
+        <v>6.8235200000000003</v>
+      </c>
+      <c r="G103">
+        <v>2002</v>
+      </c>
+      <c r="H103">
+        <v>6.8694600000000001</v>
+      </c>
+      <c r="J103">
+        <v>1552</v>
+      </c>
+      <c r="K103">
+        <v>14.12825</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>2003</v>
+      </c>
+      <c r="B104">
+        <v>5.6810999999999998</v>
+      </c>
+      <c r="D104">
+        <v>2003</v>
+      </c>
+      <c r="E104">
+        <v>6.67699</v>
+      </c>
+      <c r="G104">
+        <v>2003</v>
+      </c>
+      <c r="H104">
+        <v>6.7303870000000003</v>
+      </c>
+      <c r="J104">
+        <v>1553</v>
+      </c>
+      <c r="K104">
+        <v>13.5862</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>2004</v>
+      </c>
+      <c r="B105">
+        <v>5.5805100000000003</v>
+      </c>
+      <c r="D105">
+        <v>2004</v>
+      </c>
+      <c r="E105">
+        <v>6.5410180000000002</v>
+      </c>
+      <c r="G105">
+        <v>2004</v>
+      </c>
+      <c r="H105">
+        <v>6.5925500000000001</v>
+      </c>
+      <c r="J105">
+        <v>1554</v>
+      </c>
+      <c r="K105">
+        <v>13.084533</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>2005</v>
+      </c>
+      <c r="B106">
+        <v>5.4873799999999999</v>
+      </c>
+      <c r="D106">
+        <v>2005</v>
+      </c>
+      <c r="E106">
+        <v>6.4013200000000001</v>
+      </c>
+      <c r="G106">
+        <v>2005</v>
+      </c>
+      <c r="H106">
+        <v>6.4596799999999996</v>
+      </c>
+      <c r="J106">
+        <v>1555</v>
+      </c>
+      <c r="K106">
+        <v>12.620683</v>
+      </c>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>2006</v>
+      </c>
+      <c r="B107">
+        <v>5.3942500000000004</v>
+      </c>
+      <c r="D107">
+        <v>2006</v>
+      </c>
+      <c r="E107">
+        <v>6.2765199999999997</v>
+      </c>
+      <c r="G107">
+        <v>2006</v>
+      </c>
+      <c r="H107">
+        <v>6.3330200000000003</v>
+      </c>
+      <c r="J107">
+        <v>1556</v>
+      </c>
+      <c r="K107">
+        <v>12.187967</v>
+      </c>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>2007</v>
+      </c>
+      <c r="B108">
+        <v>5.3048450000000003</v>
+      </c>
+      <c r="D108">
+        <v>2007</v>
+      </c>
+      <c r="E108">
+        <v>6.1523450000000004</v>
+      </c>
+      <c r="G108">
+        <v>2007</v>
+      </c>
+      <c r="H108">
+        <v>6.2138099999999996</v>
+      </c>
+      <c r="J108">
+        <v>1557</v>
+      </c>
+      <c r="K108">
+        <v>11.782567</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>2008</v>
+      </c>
+      <c r="B109">
+        <v>5.2228899999999996</v>
+      </c>
+      <c r="D109">
+        <v>2008</v>
+      </c>
+      <c r="E109">
+        <v>6.0356199999999998</v>
+      </c>
+      <c r="G109">
+        <v>2008</v>
+      </c>
+      <c r="H109">
+        <v>6.1045369999999997</v>
+      </c>
+      <c r="J109">
+        <v>1558</v>
+      </c>
+      <c r="K109">
+        <v>11.4032</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>2009</v>
+      </c>
+      <c r="B110">
+        <v>5.14093</v>
+      </c>
+      <c r="D110">
+        <v>2009</v>
+      </c>
+      <c r="E110">
+        <v>5.9195200000000003</v>
+      </c>
+      <c r="G110">
+        <v>2009</v>
+      </c>
+      <c r="H110">
+        <v>5.9865729999999999</v>
+      </c>
+      <c r="J110">
+        <v>1559</v>
+      </c>
+      <c r="K110">
+        <v>11.049917000000001</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>2010</v>
+      </c>
+      <c r="B111">
+        <v>5.0571099999999998</v>
+      </c>
+      <c r="D111">
+        <v>2010</v>
+      </c>
+      <c r="E111">
+        <v>5.8102419999999997</v>
+      </c>
+      <c r="G111">
+        <v>2010</v>
+      </c>
+      <c r="H111">
+        <v>5.882263</v>
+      </c>
+      <c r="J111">
+        <v>1560</v>
+      </c>
+      <c r="K111">
+        <v>10.722667</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>2011</v>
+      </c>
+      <c r="B112">
+        <v>4.98447</v>
+      </c>
+      <c r="D112">
+        <v>2011</v>
+      </c>
+      <c r="E112">
+        <v>5.7053099999999999</v>
+      </c>
+      <c r="G112">
+        <v>2011</v>
+      </c>
+      <c r="H112">
+        <v>5.7773300000000001</v>
+      </c>
+      <c r="J112">
+        <v>1561</v>
+      </c>
+      <c r="K112">
+        <v>10.411583</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>2012</v>
+      </c>
+      <c r="B113">
+        <v>4.9118250000000003</v>
+      </c>
+      <c r="D113">
+        <v>2012</v>
+      </c>
+      <c r="E113">
+        <v>5.6041100000000004</v>
+      </c>
+      <c r="G113">
+        <v>2012</v>
+      </c>
+      <c r="H113">
+        <v>5.6736500000000003</v>
+      </c>
+      <c r="J113">
+        <v>1562</v>
+      </c>
+      <c r="K113">
+        <v>10.11605</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>2013</v>
+      </c>
+      <c r="B114">
+        <v>4.8354600000000003</v>
+      </c>
+      <c r="D114">
+        <v>2013</v>
+      </c>
+      <c r="E114">
+        <v>5.5091099999999997</v>
+      </c>
+      <c r="G114">
+        <v>2013</v>
+      </c>
+      <c r="H114">
+        <v>5.5811320000000002</v>
+      </c>
+      <c r="J114">
+        <v>1563</v>
+      </c>
+      <c r="K114">
+        <v>9.8373069999999991</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>2014</v>
+      </c>
+      <c r="B115">
+        <v>4.76654</v>
+      </c>
+      <c r="D115">
+        <v>2014</v>
+      </c>
+      <c r="E115">
+        <v>5.4128800000000004</v>
+      </c>
+      <c r="G115">
+        <v>2014</v>
+      </c>
+      <c r="H115">
+        <v>5.4886229999999996</v>
+      </c>
+      <c r="J115">
+        <v>1564</v>
+      </c>
+      <c r="K115">
+        <v>9.5752930000000003</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>2015</v>
+      </c>
+      <c r="B116">
+        <v>4.7013499999999997</v>
+      </c>
+      <c r="D116">
+        <v>2015</v>
+      </c>
+      <c r="E116">
+        <v>5.320983</v>
+      </c>
+      <c r="G116">
+        <v>2015</v>
+      </c>
+      <c r="H116">
+        <v>5.3998350000000004</v>
+      </c>
+      <c r="J116">
+        <v>1565</v>
+      </c>
+      <c r="K116">
+        <v>9.3263250000000006</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>2016</v>
+      </c>
+      <c r="B117">
+        <v>4.63056</v>
+      </c>
+      <c r="D117">
+        <v>2016</v>
+      </c>
+      <c r="E117">
+        <v>5.2377900000000004</v>
+      </c>
+      <c r="G117">
+        <v>2016</v>
+      </c>
+      <c r="H117">
+        <v>5.3129119999999999</v>
+      </c>
+      <c r="J117">
+        <v>1566</v>
+      </c>
+      <c r="K117">
+        <v>9.0922499999999999</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>2017</v>
+      </c>
+      <c r="B118">
+        <v>4.5653750000000004</v>
+      </c>
+      <c r="D118">
+        <v>2017</v>
+      </c>
+      <c r="E118">
+        <v>5.1521100000000004</v>
+      </c>
+      <c r="G118">
+        <v>2017</v>
+      </c>
+      <c r="H118">
+        <v>5.2278529999999996</v>
+      </c>
+      <c r="J118">
+        <v>1567</v>
+      </c>
+      <c r="K118">
+        <v>8.8699700000000004</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>2018</v>
+      </c>
+      <c r="B119">
+        <v>4.5001800000000003</v>
+      </c>
+      <c r="D119">
+        <v>2018</v>
+      </c>
+      <c r="E119">
+        <v>5.0707700000000004</v>
+      </c>
+      <c r="G119">
+        <v>2018</v>
+      </c>
+      <c r="H119">
+        <v>5.1459000000000001</v>
+      </c>
+      <c r="J119">
+        <v>1568</v>
+      </c>
+      <c r="K119">
+        <v>8.6582519999999992</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>2019</v>
+      </c>
+      <c r="B120">
+        <v>4.4443000000000001</v>
+      </c>
+      <c r="D120">
+        <v>2019</v>
+      </c>
+      <c r="E120">
+        <v>4.9925379999999997</v>
+      </c>
+      <c r="G120">
+        <v>2019</v>
+      </c>
+      <c r="H120">
+        <v>5.0676629999999996</v>
+      </c>
+      <c r="J120">
+        <v>1569</v>
+      </c>
+      <c r="K120">
+        <v>8.4570900000000009</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>2020</v>
+      </c>
+      <c r="B121">
+        <v>4.3846999999999996</v>
+      </c>
+      <c r="D121">
+        <v>2020</v>
+      </c>
+      <c r="E121">
+        <v>4.91493</v>
+      </c>
+      <c r="G121">
+        <v>2020</v>
+      </c>
+      <c r="H121">
+        <v>4.9931599999999996</v>
+      </c>
+      <c r="J121">
+        <v>1570</v>
+      </c>
+      <c r="K121">
+        <v>8.2646149999999992</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>2021</v>
+      </c>
+      <c r="B122">
+        <v>4.3288200000000003</v>
+      </c>
+      <c r="D122">
+        <v>2021</v>
+      </c>
+      <c r="E122">
+        <v>4.8391799999999998</v>
+      </c>
+      <c r="G122">
+        <v>2021</v>
+      </c>
+      <c r="H122">
+        <v>4.9198969999999997</v>
+      </c>
+      <c r="J122">
+        <v>1571</v>
+      </c>
+      <c r="K122">
+        <v>8.0845579999999995</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>2022</v>
+      </c>
+      <c r="B123">
+        <v>4.2729400000000002</v>
+      </c>
+      <c r="D123">
+        <v>2022</v>
+      </c>
+      <c r="E123">
+        <v>4.7715079999999999</v>
+      </c>
+      <c r="G123">
+        <v>2022</v>
+      </c>
+      <c r="H123">
+        <v>4.846012</v>
+      </c>
+      <c r="J123">
+        <v>1572</v>
+      </c>
+      <c r="K123">
+        <v>7.91195</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>2023</v>
+      </c>
+      <c r="B124">
+        <v>4.222645</v>
+      </c>
+      <c r="D124">
+        <v>2023</v>
+      </c>
+      <c r="E124">
+        <v>4.6994850000000001</v>
+      </c>
+      <c r="G124">
+        <v>2023</v>
+      </c>
+      <c r="H124">
+        <v>4.7777149999999997</v>
+      </c>
+      <c r="J124">
+        <v>1573</v>
+      </c>
+      <c r="K124">
+        <v>7.7461799999999998</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>2024</v>
+      </c>
+      <c r="B125">
+        <v>4.1686300000000003</v>
+      </c>
+      <c r="D125">
+        <v>2024</v>
+      </c>
+      <c r="E125">
+        <v>4.6318029999999997</v>
+      </c>
+      <c r="G125">
+        <v>2024</v>
+      </c>
+      <c r="H125">
+        <v>4.714385</v>
+      </c>
+      <c r="J125">
+        <v>1574</v>
+      </c>
+      <c r="K125">
+        <v>7.5872070000000003</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>2025</v>
+      </c>
+      <c r="B126">
+        <v>4.1164699999999996</v>
+      </c>
+      <c r="D126">
+        <v>2025</v>
+      </c>
+      <c r="E126">
+        <v>4.5641319999999999</v>
+      </c>
+      <c r="G126">
+        <v>2025</v>
+      </c>
+      <c r="H126">
+        <v>4.6485719999999997</v>
+      </c>
+      <c r="J126">
+        <v>1575</v>
+      </c>
+      <c r="K126">
+        <v>7.4357100000000003</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>2026</v>
+      </c>
+      <c r="B127">
+        <v>4.0661849999999999</v>
+      </c>
+      <c r="D127">
+        <v>2026</v>
+      </c>
+      <c r="E127">
+        <v>4.5032880000000004</v>
+      </c>
+      <c r="G127">
+        <v>2026</v>
+      </c>
+      <c r="H127">
+        <v>4.5827600000000004</v>
+      </c>
+      <c r="J127">
+        <v>1576</v>
+      </c>
+      <c r="K127">
+        <v>7.2885600000000004</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>2027</v>
+      </c>
+      <c r="B128">
+        <v>4.0196199999999997</v>
+      </c>
+      <c r="D128">
+        <v>2027</v>
+      </c>
+      <c r="E128">
+        <v>4.4443000000000001</v>
+      </c>
+      <c r="G128">
+        <v>2027</v>
+      </c>
+      <c r="H128">
+        <v>4.5219120000000004</v>
+      </c>
+      <c r="J128">
+        <v>1577</v>
+      </c>
+      <c r="K128">
+        <v>7.1501029999999997</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>2028</v>
+      </c>
+      <c r="B129">
+        <v>3.9655999999999998</v>
+      </c>
+      <c r="D129">
+        <v>2028</v>
+      </c>
+      <c r="E129">
+        <v>4.3815920000000004</v>
+      </c>
+      <c r="G129">
+        <v>2028</v>
+      </c>
+      <c r="H129">
+        <v>4.4629300000000001</v>
+      </c>
+      <c r="J129">
+        <v>1578</v>
+      </c>
+      <c r="K129">
+        <v>7.0190999999999999</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>2029</v>
+      </c>
+      <c r="B130">
+        <v>3.9246249999999998</v>
+      </c>
+      <c r="D130">
+        <v>2029</v>
+      </c>
+      <c r="E130">
+        <v>4.3269549999999999</v>
+      </c>
+      <c r="G130">
+        <v>2029</v>
+      </c>
+      <c r="H130">
+        <v>4.4058070000000003</v>
+      </c>
+      <c r="J130">
+        <v>1579</v>
+      </c>
+      <c r="K130">
+        <v>6.8918200000000001</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>2030</v>
+      </c>
+      <c r="B131">
+        <v>3.8761950000000001</v>
+      </c>
+      <c r="D131">
+        <v>2030</v>
+      </c>
+      <c r="E131">
+        <v>4.2692129999999997</v>
+      </c>
+      <c r="G131">
+        <v>2030</v>
+      </c>
+      <c r="H131">
+        <v>4.3486830000000003</v>
+      </c>
+      <c r="J131">
+        <v>1580</v>
+      </c>
+      <c r="K131">
+        <v>6.7664</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>2031</v>
+      </c>
+      <c r="B132">
+        <v>3.8314900000000001</v>
+      </c>
+      <c r="D132">
+        <v>2031</v>
+      </c>
+      <c r="E132">
+        <v>4.21333</v>
+      </c>
+      <c r="G132">
+        <v>2031</v>
+      </c>
+      <c r="H132">
+        <v>4.2946679999999997</v>
+      </c>
+      <c r="J132">
+        <v>1581</v>
+      </c>
+      <c r="K132">
+        <v>6.6496700000000004</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>2032</v>
+      </c>
+      <c r="B133">
+        <v>3.79236</v>
+      </c>
+      <c r="D133">
+        <v>2032</v>
+      </c>
+      <c r="E133">
+        <v>4.1599370000000002</v>
+      </c>
+      <c r="G133">
+        <v>2032</v>
+      </c>
+      <c r="H133">
+        <v>4.2394100000000003</v>
+      </c>
+      <c r="J133">
+        <v>1582</v>
+      </c>
+      <c r="K133">
+        <v>6.5304599999999997</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>2033</v>
+      </c>
+      <c r="B134">
+        <v>3.74952</v>
+      </c>
+      <c r="D134">
+        <v>2033</v>
+      </c>
+      <c r="E134">
+        <v>4.1127500000000001</v>
+      </c>
+      <c r="G134">
+        <v>2033</v>
+      </c>
+      <c r="H134">
+        <v>4.1872579999999999</v>
+      </c>
+      <c r="J134">
+        <v>1583</v>
+      </c>
+      <c r="K134">
+        <v>6.4211869999999998</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>2034</v>
+      </c>
+      <c r="B135">
+        <v>3.70668</v>
+      </c>
+      <c r="D135">
+        <v>2034</v>
+      </c>
+      <c r="E135">
+        <v>4.0562480000000001</v>
+      </c>
+      <c r="G135">
+        <v>2034</v>
+      </c>
+      <c r="H135">
+        <v>4.136965</v>
+      </c>
+      <c r="J135">
+        <v>1584</v>
+      </c>
+      <c r="K135">
+        <v>6.3131570000000004</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>2035</v>
+      </c>
+      <c r="B136">
+        <v>3.6694300000000002</v>
+      </c>
+      <c r="D136">
+        <v>2035</v>
+      </c>
+      <c r="E136">
+        <v>4.0103049999999998</v>
+      </c>
+      <c r="G136">
+        <v>2035</v>
+      </c>
+      <c r="H136">
+        <v>4.0854299999999997</v>
+      </c>
+      <c r="J136">
+        <v>1585</v>
+      </c>
+      <c r="K136">
+        <v>6.2082249999999997</v>
+      </c>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>2036</v>
+      </c>
+      <c r="B137">
+        <v>3.6321699999999999</v>
+      </c>
+      <c r="D137">
+        <v>2036</v>
+      </c>
+      <c r="E137">
+        <v>3.96001</v>
+      </c>
+      <c r="G137">
+        <v>2036</v>
+      </c>
+      <c r="H137">
+        <v>4.0419700000000001</v>
+      </c>
+      <c r="J137">
+        <v>1586</v>
+      </c>
+      <c r="K137">
+        <v>6.1095100000000002</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>2037</v>
+      </c>
+      <c r="B138">
+        <v>3.5911900000000001</v>
+      </c>
+      <c r="D138">
+        <v>2037</v>
+      </c>
+      <c r="E138">
+        <v>3.9128219999999998</v>
+      </c>
+      <c r="G138">
+        <v>2037</v>
+      </c>
+      <c r="H138">
+        <v>3.994783</v>
+      </c>
+      <c r="J138">
+        <v>1587</v>
+      </c>
+      <c r="K138">
+        <v>6.0163700000000002</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>2038</v>
+      </c>
+      <c r="B139">
+        <v>3.5502199999999999</v>
+      </c>
+      <c r="D139">
+        <v>2038</v>
+      </c>
+      <c r="E139">
+        <v>3.869367</v>
+      </c>
+      <c r="G139">
+        <v>2038</v>
+      </c>
+      <c r="H139">
+        <v>3.9500799999999998</v>
+      </c>
+      <c r="J139">
+        <v>1588</v>
+      </c>
+      <c r="K139">
+        <v>5.9207599999999996</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>2039</v>
+      </c>
+      <c r="B140">
+        <v>3.5185499999999998</v>
+      </c>
+      <c r="D140">
+        <v>2039</v>
+      </c>
+      <c r="E140">
+        <v>3.8252799999999998</v>
+      </c>
+      <c r="G140">
+        <v>2039</v>
+      </c>
+      <c r="H140">
+        <v>3.9028900000000002</v>
+      </c>
+      <c r="J140">
+        <v>1589</v>
+      </c>
+      <c r="K140">
+        <v>5.83073</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>2040</v>
+      </c>
+      <c r="B141">
+        <v>3.4831599999999998</v>
+      </c>
+      <c r="D141">
+        <v>2040</v>
+      </c>
+      <c r="E141">
+        <v>3.7824230000000001</v>
+      </c>
+      <c r="G141">
+        <v>2040</v>
+      </c>
+      <c r="H141">
+        <v>3.8631600000000001</v>
+      </c>
+      <c r="J141">
+        <v>1590</v>
+      </c>
+      <c r="K141">
+        <v>5.7469099999999997</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>2041</v>
+      </c>
+      <c r="B142">
+        <v>3.4477699999999998</v>
+      </c>
+      <c r="D142">
+        <v>2041</v>
+      </c>
+      <c r="E142">
+        <v>3.7395879999999999</v>
+      </c>
+      <c r="G142">
+        <v>2041</v>
+      </c>
+      <c r="H142">
+        <v>3.8209369999999998</v>
+      </c>
+      <c r="J142">
+        <v>1591</v>
+      </c>
+      <c r="K142">
+        <v>5.6624699999999999</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>2042</v>
+      </c>
+      <c r="B143">
+        <v>3.4161100000000002</v>
+      </c>
+      <c r="D143">
+        <v>2042</v>
+      </c>
+      <c r="E143">
+        <v>3.69923</v>
+      </c>
+      <c r="G143">
+        <v>2042</v>
+      </c>
+      <c r="H143">
+        <v>3.7749730000000001</v>
+      </c>
+      <c r="J143">
+        <v>1592</v>
+      </c>
+      <c r="K143">
+        <v>5.5774080000000001</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>2043</v>
+      </c>
+      <c r="B144">
+        <v>3.3825799999999999</v>
+      </c>
+      <c r="D144">
+        <v>2043</v>
+      </c>
+      <c r="E144">
+        <v>3.6576279999999999</v>
+      </c>
+      <c r="G144">
+        <v>2043</v>
+      </c>
+      <c r="H144">
+        <v>3.7364799999999998</v>
+      </c>
+      <c r="J144">
+        <v>1593</v>
+      </c>
+      <c r="K144">
+        <v>5.5016619999999996</v>
+      </c>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>2044</v>
+      </c>
+      <c r="B145">
+        <v>3.3509150000000001</v>
+      </c>
+      <c r="D145">
+        <v>2044</v>
+      </c>
+      <c r="E145">
+        <v>3.6160299999999999</v>
+      </c>
+      <c r="G145">
+        <v>2044</v>
+      </c>
+      <c r="H145">
+        <v>3.697365</v>
+      </c>
+      <c r="J145">
+        <v>1594</v>
+      </c>
+      <c r="K145">
+        <v>5.4228120000000004</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>2045</v>
+      </c>
+      <c r="B146">
+        <v>3.3173849999999998</v>
+      </c>
+      <c r="D146">
+        <v>2045</v>
+      </c>
+      <c r="E146">
+        <v>3.5800200000000002</v>
+      </c>
+      <c r="G146">
+        <v>2045</v>
+      </c>
+      <c r="H146">
+        <v>3.6582479999999999</v>
+      </c>
+      <c r="J146">
+        <v>1595</v>
+      </c>
+      <c r="K146">
+        <v>5.3483070000000001</v>
+      </c>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>2046</v>
+      </c>
+      <c r="B147">
+        <v>3.28572</v>
+      </c>
+      <c r="D147">
+        <v>2046</v>
+      </c>
+      <c r="E147">
+        <v>3.5452499999999998</v>
+      </c>
+      <c r="G147">
+        <v>2046</v>
+      </c>
+      <c r="H147">
+        <v>3.6203780000000001</v>
+      </c>
+      <c r="J147">
+        <v>1596</v>
+      </c>
+      <c r="K147">
+        <v>5.2762830000000003</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>2047</v>
+      </c>
+      <c r="B148">
+        <v>3.2559200000000001</v>
+      </c>
+      <c r="D148">
+        <v>2047</v>
+      </c>
+      <c r="E148">
+        <v>3.507997</v>
+      </c>
+      <c r="G148">
+        <v>2047</v>
+      </c>
+      <c r="H148">
+        <v>3.5837400000000001</v>
+      </c>
+      <c r="J148">
+        <v>1597</v>
+      </c>
+      <c r="K148">
+        <v>5.2067399999999999</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>2048</v>
+      </c>
+      <c r="B149">
+        <v>3.2279800000000001</v>
+      </c>
+      <c r="D149">
+        <v>2048</v>
+      </c>
+      <c r="E149">
+        <v>3.4719899999999999</v>
+      </c>
+      <c r="G149">
+        <v>2048</v>
+      </c>
+      <c r="H149">
+        <v>3.547733</v>
+      </c>
+      <c r="J149">
+        <v>1598</v>
+      </c>
+      <c r="K149">
+        <v>5.1378219999999999</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>2049</v>
+      </c>
+      <c r="B150">
+        <v>3.20004</v>
+      </c>
+      <c r="D150">
+        <v>2049</v>
+      </c>
+      <c r="E150">
+        <v>3.4347300000000001</v>
+      </c>
+      <c r="G150">
+        <v>2049</v>
+      </c>
+      <c r="H150">
+        <v>3.5129600000000001</v>
+      </c>
+      <c r="J150">
+        <v>1599</v>
+      </c>
+      <c r="K150">
+        <v>5.0707700000000004</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>2050</v>
+      </c>
+      <c r="B151">
+        <v>3.1702400000000002</v>
+      </c>
+      <c r="D151">
+        <v>2050</v>
+      </c>
+      <c r="E151">
+        <v>3.4024429999999999</v>
+      </c>
+      <c r="G151">
+        <v>2050</v>
+      </c>
+      <c r="H151">
+        <v>3.4800599999999999</v>
+      </c>
+      <c r="J151">
+        <v>1600</v>
+      </c>
+      <c r="K151">
+        <v>5.0068169999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7B2D0C6-04F7-4156-80F0-B2CA1AE013F6}">
+  <dimension ref="A1:G32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.28515625" bestFit="1" customWidth="1"/>
@@ -28064,18 +36975,148 @@
         <v>2.3202223825208845</v>
       </c>
     </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>34</v>
+      </c>
+      <c r="B15">
+        <v>8.7269978735197248E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16">
+        <v>9.7918029970517198E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17">
+        <v>5.2773289603556067E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18">
+        <v>5.010417301184604E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19">
+        <v>2.8920435251440241E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20">
+        <v>6.9914536617901868E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>64</v>
+      </c>
+      <c r="B22">
+        <f>AVERAGE(B15:B20)</f>
+        <v>6.4483407198409767E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25">
+        <v>0.18426000000000187</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26">
+        <v>5.4961999999999733E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>29</v>
+      </c>
+      <c r="B27">
+        <v>0.531470000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>36</v>
+      </c>
+      <c r="B28">
+        <v>0.52153999999999989</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>0.22228700000000012</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30">
+        <v>1.1057869999999999</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32">
+        <f>AVERAGE(B25:B30)</f>
+        <v>0.43671766666666706</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD37F396-83D4-4DFB-A404-9D11716C21B1}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q10" sqref="Q10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q25" sqref="Q25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28161,8 +37202,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF54F6DF-CA18-4A18-9FA0-A7B1C612620E}">
   <dimension ref="A1:Q151"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="O19" sqref="O19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -31005,7 +40046,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -31014,7 +40056,7 @@
   <dimension ref="A1:AA151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33731,7 +42773,7 @@
   <dimension ref="A1:AH151"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38713,7 +47755,7 @@
   <dimension ref="A1:AA151"/>
   <sheetViews>
     <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -41430,7 +50472,7 @@
   <dimension ref="A1:AA151"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -44145,7 +53187,7 @@
   <dimension ref="A1:AA112"/>
   <sheetViews>
     <sheetView zoomScale="92" workbookViewId="0">
-      <selection activeCell="I21" sqref="I21"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -46212,7 +55254,7 @@
   <dimension ref="A1:AA151"/>
   <sheetViews>
     <sheetView zoomScale="92" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection sqref="A1:B151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -48928,9 +57970,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30210E5A-6D7F-415B-AE81-763F2E9C15E8}">
   <dimension ref="A1:AA151"/>
   <sheetViews>
-    <sheetView zoomScale="92" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
-    </sheetView>
+    <sheetView zoomScale="92" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
